--- a/APLAI/experiments/results.xlsx
+++ b/APLAI/experiments/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="4680"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="39">
   <si>
     <t xml:space="preserve">CHR 1 </t>
   </si>
@@ -83,16 +83,67 @@
   <si>
     <t>CHR3</t>
   </si>
+  <si>
+    <t>backtracks</t>
+  </si>
+  <si>
+    <t>CPU (s)</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>middle_out</t>
+  </si>
+  <si>
+    <t>first_fail</t>
+  </si>
+  <si>
+    <t>moff</t>
+  </si>
+  <si>
+    <t>moffmo</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Sudoku 1</t>
+  </si>
+  <si>
+    <t>Sudoku 2</t>
+  </si>
+  <si>
+    <t>Sudoku 3</t>
+  </si>
+  <si>
+    <t>verydifficult</t>
+  </si>
+  <si>
+    <t>Best 1</t>
+  </si>
+  <si>
+    <t>Best 2</t>
+  </si>
+  <si>
+    <t>Best 3</t>
+  </si>
+  <si>
+    <t>Average Backtracks</t>
+  </si>
+  <si>
+    <t>Average CPU time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +165,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -168,15 +239,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -186,35 +365,301 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="410">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="518">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -240,11 +685,120 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -287,6 +841,33 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -333,6 +914,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -350,6 +941,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -377,6 +978,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -441,6 +1052,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -451,6 +1069,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -478,6 +1106,118 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -532,6 +1272,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -559,6 +1309,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -569,6 +1326,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -596,6 +1373,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -616,6 +1400,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -670,6 +1464,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -724,6 +1528,100 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -741,6 +1639,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -759,6 +1667,831 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
     </dxf>
@@ -902,11 +2635,228 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -932,11 +2882,120 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -979,6 +3038,33 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1025,6 +3111,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1042,6 +3138,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1069,6 +3175,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1133,6 +3249,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1143,6 +3266,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1170,6 +3303,118 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1224,6 +3469,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1251,6 +3506,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1261,6 +3523,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1288,6 +3570,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1308,6 +3597,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1362,6 +3661,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1416,6 +3725,100 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1433,6 +3836,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1451,8 +3864,13 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1473,16 +3891,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1529,6 +3937,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1593,6 +4011,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1613,12 +4038,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1643,6 +4065,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
@@ -1661,6 +4093,23 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1680,1990 +4129,80 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3677,10 +4216,22 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3694,9 +4245,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3714,10 +4273,58 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3731,13 +4338,22 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3751,6 +4367,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3768,22 +4395,58 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3797,10 +4460,22 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3814,6 +4489,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3831,6 +4517,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
@@ -3851,20 +4591,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3881,6 +4607,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3898,9 +4627,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3918,6 +4644,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3935,9 +4664,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3955,6 +4681,12 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3989,7 +4721,186 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4319,11 +5230,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="113797760"/>
-        <c:axId val="79554432"/>
+        <c:axId val="115613056"/>
+        <c:axId val="115623040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113797760"/>
+        <c:axId val="115613056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +5243,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79554432"/>
+        <c:crossAx val="115623040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4340,7 +5251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79554432"/>
+        <c:axId val="115623040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4351,7 +5262,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113797760"/>
+        <c:crossAx val="115613056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4408,7 +5319,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4700,11 +5610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127105280"/>
-        <c:axId val="127123456"/>
+        <c:axId val="115653248"/>
+        <c:axId val="115659136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127105280"/>
+        <c:axId val="115653248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4713,7 +5623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127123456"/>
+        <c:crossAx val="115659136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4721,7 +5631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127123456"/>
+        <c:axId val="115659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4732,14 +5642,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127105280"/>
+        <c:crossAx val="115653248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4861,11 +5770,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A3:D14" totalsRowShown="0" headerRowDxfId="400">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A3:D14" totalsRowShown="0" headerRowDxfId="517">
   <autoFilter ref="A3:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="399"/>
-    <tableColumn id="2" name="inferences" dataDxfId="398"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="516"/>
+    <tableColumn id="2" name="inferences" dataDxfId="515"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4873,12 +5782,48 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabel15" displayName="Tabel15" ref="B2:D13" totalsRowShown="0" headerRowDxfId="487" tableBorderDxfId="486">
+  <autoFilter ref="B2:D13"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Kolom1" dataDxfId="485"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="484"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="483"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabel1517" displayName="Tabel1517" ref="B19:D30" totalsRowShown="0" headerRowDxfId="482" tableBorderDxfId="481">
+  <autoFilter ref="B19:D30"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Kolom1" dataDxfId="480"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="479"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="478"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabel151718" displayName="Tabel151718" ref="B36:D47" totalsRowShown="0" headerRowDxfId="477" tableBorderDxfId="476">
+  <autoFilter ref="B36:D47"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Kolom1" dataDxfId="475"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="474"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="473"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A20:D31" totalsRowShown="0" headerRowDxfId="407">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A20:D31" totalsRowShown="0" headerRowDxfId="514">
   <autoFilter ref="A20:D31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="409"/>
-    <tableColumn id="2" name="inferences" dataDxfId="408"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="513"/>
+    <tableColumn id="2" name="inferences" dataDxfId="512"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4887,11 +5832,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="F3:I14" totalsRowShown="0" headerRowDxfId="406">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="F3:I14" totalsRowShown="0" headerRowDxfId="511">
   <autoFilter ref="F3:I14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="405"/>
-    <tableColumn id="2" name="inferences" dataDxfId="404"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="510"/>
+    <tableColumn id="2" name="inferences" dataDxfId="509"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4900,11 +5845,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel58" displayName="Tabel58" ref="F20:I31" totalsRowShown="0" headerRowDxfId="403">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel58" displayName="Tabel58" ref="F20:I31" totalsRowShown="0" headerRowDxfId="508">
   <autoFilter ref="F20:I31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="402"/>
-    <tableColumn id="2" name="inferences" dataDxfId="401"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="507"/>
+    <tableColumn id="2" name="inferences" dataDxfId="506"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4913,14 +5858,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabel511" displayName="Tabel511" ref="A34:D45" totalsRowShown="0" headerRowDxfId="397">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabel511" displayName="Tabel511" ref="A34:D45" totalsRowShown="0" headerRowDxfId="505">
   <autoFilter ref="A34:D45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="396"/>
-    <tableColumn id="2" name="inferences" dataDxfId="393">
+    <tableColumn id="1" name="Kolom1" dataDxfId="504"/>
+    <tableColumn id="2" name="inferences" dataDxfId="503">
       <calculatedColumnFormula>SUM(B4,B21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="392">
+    <tableColumn id="3" name="seconds" dataDxfId="502">
       <calculatedColumnFormula>SUM(C4,C21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -4932,14 +5877,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabel5812" displayName="Tabel5812" ref="F34:I45" totalsRowShown="0" headerRowDxfId="395">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabel5812" displayName="Tabel5812" ref="F34:I45" totalsRowShown="0" headerRowDxfId="501">
   <autoFilter ref="F34:I45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="394"/>
-    <tableColumn id="2" name="inferences" dataDxfId="391">
+    <tableColumn id="1" name="Kolom1" dataDxfId="500"/>
+    <tableColumn id="2" name="inferences" dataDxfId="499">
       <calculatedColumnFormula>SUM(G4,G21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="390">
+    <tableColumn id="3" name="seconds" dataDxfId="498">
       <calculatedColumnFormula>SUM(H4,H21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -4951,11 +5896,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabel4713" displayName="Tabel4713" ref="K3:N14" totalsRowShown="0" headerRowDxfId="389">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabel4713" displayName="Tabel4713" ref="K3:N14" totalsRowShown="0" headerRowDxfId="497">
   <autoFilter ref="K3:N14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="388"/>
-    <tableColumn id="2" name="inferences" dataDxfId="387"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="496"/>
+    <tableColumn id="2" name="inferences" dataDxfId="495"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4964,11 +5909,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabel5814" displayName="Tabel5814" ref="K20:N31" totalsRowShown="0" headerRowDxfId="386">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabel5814" displayName="Tabel5814" ref="K20:N31" totalsRowShown="0" headerRowDxfId="494">
   <autoFilter ref="K20:N31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="385"/>
-    <tableColumn id="2" name="inferences" dataDxfId="384"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="493"/>
+    <tableColumn id="2" name="inferences" dataDxfId="492"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -4977,14 +5922,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabel581215" displayName="Tabel581215" ref="K34:N45" totalsRowShown="0" headerRowDxfId="383">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabel581215" displayName="Tabel581215" ref="K34:N45" totalsRowShown="0" headerRowDxfId="491">
   <autoFilter ref="K34:N45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="382"/>
-    <tableColumn id="2" name="inferences" dataDxfId="381">
+    <tableColumn id="1" name="Kolom1" dataDxfId="490"/>
+    <tableColumn id="2" name="inferences" dataDxfId="489">
       <calculatedColumnFormula>SUM(L4,L21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="380">
+    <tableColumn id="3" name="seconds" dataDxfId="488">
       <calculatedColumnFormula>SUM(M4,M21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -5284,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6423,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" ref="L35:N35" si="2">SUM(L4,L21)</f>
+        <f t="shared" ref="L35:M35" si="2">SUM(L4,L21)</f>
         <v>743889</v>
       </c>
       <c r="M35" s="13">
@@ -6470,7 +7415,7 @@
         <v>5</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" ref="L36:N36" si="3">SUM(L5,L22)</f>
+        <f t="shared" ref="L36:M36" si="3">SUM(L5,L22)</f>
         <v>1006605</v>
       </c>
       <c r="M36" s="13">
@@ -6517,7 +7462,7 @@
         <v>6</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" ref="L37:N37" si="5">SUM(L6,L23)</f>
+        <f t="shared" ref="L37:M37" si="5">SUM(L6,L23)</f>
         <v>3484972</v>
       </c>
       <c r="M37" s="13">
@@ -6564,7 +7509,7 @@
         <v>7</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" ref="L38:N38" si="6">SUM(L7,L24)</f>
+        <f t="shared" ref="L38:M38" si="6">SUM(L7,L24)</f>
         <v>884750</v>
       </c>
       <c r="M38" s="13">
@@ -6611,7 +7556,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" ref="L39:N39" si="7">SUM(L8,L25)</f>
+        <f t="shared" ref="L39:M39" si="7">SUM(L8,L25)</f>
         <v>1008727</v>
       </c>
       <c r="M39" s="13">
@@ -6658,7 +7603,7 @@
         <v>9</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" ref="L40:N40" si="8">SUM(L9,L26)</f>
+        <f t="shared" ref="L40:M40" si="8">SUM(L9,L26)</f>
         <v>19546090</v>
       </c>
       <c r="M40" s="13">
@@ -6705,7 +7650,7 @@
         <v>10</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" ref="L41:N41" si="9">SUM(L10,L27)</f>
+        <f t="shared" ref="L41:M41" si="9">SUM(L10,L27)</f>
         <v>6834612</v>
       </c>
       <c r="M41" s="13">
@@ -6752,7 +7697,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" ref="L42:N42" si="10">SUM(L11,L28)</f>
+        <f t="shared" ref="L42:M42" si="10">SUM(L11,L28)</f>
         <v>8479664</v>
       </c>
       <c r="M42" s="13">
@@ -6799,7 +7744,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" ref="L43:N43" si="11">SUM(L12,L29)</f>
+        <f t="shared" ref="L43:M43" si="11">SUM(L12,L29)</f>
         <v>24684953</v>
       </c>
       <c r="M43" s="13">
@@ -6846,7 +7791,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44:N44" si="12">SUM(L13,L30)</f>
+        <f t="shared" ref="L44:M44" si="12">SUM(L13,L30)</f>
         <v>28620804</v>
       </c>
       <c r="M44" s="13">
@@ -6893,7 +7838,7 @@
         <v>14</v>
       </c>
       <c r="L45" s="2">
-        <f t="shared" ref="L45:N45" si="13">SUM(L14,L31)</f>
+        <f t="shared" ref="L45:M45" si="13">SUM(L14,L31)</f>
         <v>721636</v>
       </c>
       <c r="M45" s="13">
@@ -6957,151 +7902,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:D14">
-    <cfRule type="top10" dxfId="152" priority="84" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="268" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14 G4:I14">
-    <cfRule type="top10" dxfId="151" priority="83" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="267" priority="83" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="top10" dxfId="150" priority="48" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="149" priority="75" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="148" priority="82" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="266" priority="48" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="265" priority="75" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="264" priority="82" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="top10" dxfId="147" priority="51" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="146" priority="72" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="145" priority="81" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="263" priority="51" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="262" priority="72" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="261" priority="81" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I14">
-    <cfRule type="top10" dxfId="144" priority="52" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="143" priority="71" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="142" priority="80" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="260" priority="52" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="259" priority="71" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="258" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="top10" dxfId="141" priority="47" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="140" priority="77" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="139" priority="78" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="138" priority="79" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="257" priority="47" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="256" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="255" priority="78" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="254" priority="79" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="top10" dxfId="137" priority="76" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="253" priority="76" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14">
-    <cfRule type="top10" dxfId="136" priority="49" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="135" priority="74" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="252" priority="49" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="251" priority="74" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="top10" dxfId="134" priority="50" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="133" priority="73" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="250" priority="50" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="249" priority="73" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D31">
-    <cfRule type="top10" dxfId="132" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="248" priority="70" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C31">
-    <cfRule type="top10" dxfId="131" priority="55" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="130" priority="63" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="129" priority="69" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="247" priority="55" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="246" priority="63" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="245" priority="69" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B31">
-    <cfRule type="top10" dxfId="128" priority="54" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="127" priority="64" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="126" priority="68" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="244" priority="54" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="243" priority="64" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="242" priority="68" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G31">
-    <cfRule type="top10" dxfId="125" priority="57" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="124" priority="61" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="123" priority="67" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="241" priority="57" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="240" priority="61" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="239" priority="67" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H31">
-    <cfRule type="top10" dxfId="122" priority="58" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="121" priority="60" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="120" priority="66" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="238" priority="58" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="237" priority="60" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="236" priority="66" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I31">
-    <cfRule type="top10" dxfId="119" priority="59" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="118" priority="65" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="235" priority="59" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="234" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D31">
-    <cfRule type="top10" dxfId="117" priority="56" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="116" priority="62" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="233" priority="56" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="232" priority="62" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I14">
-    <cfRule type="top10" dxfId="115" priority="53" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="231" priority="53" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D45">
-    <cfRule type="top10" dxfId="114" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="230" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C45">
-    <cfRule type="top10" dxfId="113" priority="31" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="112" priority="39" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="111" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="229" priority="31" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="228" priority="39" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="227" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D45">
-    <cfRule type="top10" dxfId="110" priority="30" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="109" priority="40" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="108" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="226" priority="30" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="225" priority="40" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="224" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:I45">
-    <cfRule type="top10" dxfId="107" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="106" priority="37" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="105" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="223" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="222" priority="37" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="221" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D45">
-    <cfRule type="top10" dxfId="104" priority="32" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="103" priority="38" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="220" priority="32" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="219" priority="38" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I45">
-    <cfRule type="top10" dxfId="102" priority="28" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="101" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="218" priority="28" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="217" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M14 N21:N31">
-    <cfRule type="top10" dxfId="100" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="216" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M14">
-    <cfRule type="top10" dxfId="99" priority="11" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="98" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="97" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="215" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="214" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="213" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N31">
-    <cfRule type="top10" dxfId="96" priority="12" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="95" priority="22" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="94" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="212" priority="12" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="211" priority="22" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="210" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L14">
-    <cfRule type="top10" dxfId="93" priority="10" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="92" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="209" priority="10" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="208" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L31">
-    <cfRule type="top10" dxfId="91" priority="14" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="90" priority="18" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="89" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="207" priority="14" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="206" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="205" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M31">
-    <cfRule type="top10" dxfId="88" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="87" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="86" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="204" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="203" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="202" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M14 N21:N31">
-    <cfRule type="top10" dxfId="85" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="201" priority="13" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:N45">
-    <cfRule type="top10" dxfId="84" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="83" priority="8" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="82" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="200" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="199" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="198" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N45">
-    <cfRule type="top10" dxfId="81" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="80" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="197" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="196" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N14">
-    <cfRule type="top10" dxfId="79" priority="4" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="78" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="195" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="194" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H45">
-    <cfRule type="top10" dxfId="77" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="193" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:M45">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="192" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -7122,13 +8067,2676 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="50"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="32">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="21">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="32">
+        <v>1</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="21">
+        <v>3</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="21">
+        <v>27</v>
+      </c>
+      <c r="D7" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="21">
+        <v>159</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1.39</v>
+      </c>
+      <c r="G7" s="32">
+        <v>8</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="I7" s="32">
+        <v>35</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.31</v>
+      </c>
+      <c r="K7" s="32">
+        <v>24</v>
+      </c>
+      <c r="L7" s="31">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="21">
+        <v>16</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="E8" s="21">
+        <v>112</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G8" s="32">
+        <v>26</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="I8" s="32">
+        <v>79</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K8" s="32">
+        <v>97</v>
+      </c>
+      <c r="L8" s="31">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="21">
+        <v>63</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="32">
+        <v>3</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="32">
+        <v>9</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="K9" s="32">
+        <v>82</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="21">
+        <v>67</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.72</v>
+      </c>
+      <c r="E10" s="21">
+        <v>43</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="32">
+        <v>40</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.36</v>
+      </c>
+      <c r="K10" s="32">
+        <v>53</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="21">
+        <v>866</v>
+      </c>
+      <c r="D11" s="27">
+        <v>5.66</v>
+      </c>
+      <c r="E11" s="21">
+        <v>807</v>
+      </c>
+      <c r="F11" s="26">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="G11" s="32">
+        <v>216</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I11" s="32">
+        <v>17</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.13</v>
+      </c>
+      <c r="K11" s="32">
+        <v>143</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="21">
+        <v>57</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.59</v>
+      </c>
+      <c r="E12" s="21">
+        <v>23</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="32">
+        <v>20</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.19</v>
+      </c>
+      <c r="I12" s="32">
+        <v>19</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.17</v>
+      </c>
+      <c r="K12" s="32">
+        <v>12</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="52"/>
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="41">
+        <f>AVERAGE(Tabel15[backtracks])</f>
+        <v>99.909090909090907</v>
+      </c>
+      <c r="D15" s="37">
+        <f>AVERAGE(Tabel15[CPU (s)])</f>
+        <v>0.72545454545454546</v>
+      </c>
+      <c r="E15" s="36">
+        <f>AVERAGE(E3:E13)</f>
+        <v>104.27272727272727</v>
+      </c>
+      <c r="F15" s="36">
+        <f>AVERAGE(F3:F13)</f>
+        <v>0.71454545454545459</v>
+      </c>
+      <c r="G15" s="41">
+        <f>AVERAGE(G3:G13)</f>
+        <v>24.818181818181817</v>
+      </c>
+      <c r="H15" s="37">
+        <f>AVERAGE(H3:H13)</f>
+        <v>0.16636363636363635</v>
+      </c>
+      <c r="I15" s="36">
+        <f t="shared" ref="I15:L15" si="0">AVERAGE(I3:I13)</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="J15" s="36">
+        <f t="shared" si="0"/>
+        <v>0.15636363636363634</v>
+      </c>
+      <c r="K15" s="41">
+        <f t="shared" si="0"/>
+        <v>37.454545454545453</v>
+      </c>
+      <c r="L15" s="37">
+        <f t="shared" si="0"/>
+        <v>0.26818181818181819</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="42">
+        <f>(MEDIAN(Tabel15[backtracks]))</f>
+        <v>16</v>
+      </c>
+      <c r="D16" s="40">
+        <f>(MEDIAN(Tabel15[CPU (s)]))</f>
+        <v>0.17</v>
+      </c>
+      <c r="E16" s="39">
+        <f>MEDIAN(E3:E13)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="39">
+        <f>MEDIAN(F3:F13)</f>
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="42">
+        <f>MEDIAN(G3:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="40">
+        <f>MEDIAN(H3:H13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" ref="I16:L16" si="1">MEDIAN(I3:I13)</f>
+        <v>9</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="K16" s="42">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="M16" s="56"/>
+      <c r="N16" s="54"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="O18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.02</v>
+      </c>
+      <c r="G20" s="32">
+        <v>2</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="I20" s="32">
+        <v>1</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="K20" s="32">
+        <v>2</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="O20" s="32">
+        <f>MIN(C3,E3,G3,I3,K3)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="63">
+        <f>MIN(D3,F3,H3,J3,L3)</f>
+        <v>0.01</v>
+      </c>
+      <c r="R20" s="32">
+        <f>MIN(C20,E20,G20,I20,K20)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="61">
+        <f>MIN(D20,F20,H20,J20,L20)</f>
+        <v>0.02</v>
+      </c>
+      <c r="U20" s="32">
+        <f>MIN(C37,E37,G37,I37,K37)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="61">
+        <f>MIN(D37,F37,H37,J37,L37)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="21">
+        <v>11</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="G21" s="32">
+        <v>2</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0.03</v>
+      </c>
+      <c r="I21" s="32">
+        <v>5</v>
+      </c>
+      <c r="J21" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="32">
+        <v>5</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="O21" s="60">
+        <f>MIN(C4,E4,G4,I4,K4)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="63">
+        <f>MIN(D4,F4,H4,J4,L4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R21" s="32">
+        <f>MIN(C21,E21,G21,I21,K21)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="61">
+        <f>MIN(D21,F21,H21,J21,L21)</f>
+        <v>0.03</v>
+      </c>
+      <c r="U21" s="60">
+        <f>MIN(C38,E38,G38,I38,K38)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="61">
+        <f>MIN(D38,F38,H38,J38,L38)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="21">
+        <v>4621</v>
+      </c>
+      <c r="D22" s="31">
+        <v>13.53</v>
+      </c>
+      <c r="E22" s="21">
+        <v>8</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="G22" s="32">
+        <v>1510</v>
+      </c>
+      <c r="H22" s="31">
+        <v>3.35</v>
+      </c>
+      <c r="I22" s="32">
+        <v>291</v>
+      </c>
+      <c r="J22" s="30">
+        <v>0.72</v>
+      </c>
+      <c r="K22" s="32">
+        <v>213</v>
+      </c>
+      <c r="L22" s="31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O22" s="60">
+        <f>MIN(C5,E5,G5,I5,K5)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="63">
+        <f>MIN(D5,F5,H5,J5,L5)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R22" s="32">
+        <f>MIN(C22,E22,G22,I22,K22)</f>
+        <v>8</v>
+      </c>
+      <c r="S22" s="61">
+        <f>MIN(D22,F22,H22,J22,L22)</f>
+        <v>0.06</v>
+      </c>
+      <c r="U22" s="60">
+        <f>MIN(C39,E39,G39,I39,K39)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="61">
+        <f>MIN(D39,F39,H39,J39,L39)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2656</v>
+      </c>
+      <c r="D23" s="31">
+        <v>5.77</v>
+      </c>
+      <c r="E23" s="21">
+        <v>65</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0.17</v>
+      </c>
+      <c r="G23" s="32">
+        <v>9</v>
+      </c>
+      <c r="H23" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="32">
+        <v>63</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K23" s="32">
+        <v>76</v>
+      </c>
+      <c r="L23" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="O23" s="60">
+        <f>MIN(C6,E6,G6,I6,K6)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="63">
+        <f>MIN(D6,F6,H6,J6,L6)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R23" s="32">
+        <f>MIN(C23,E23,G23,I23,K23)</f>
+        <v>9</v>
+      </c>
+      <c r="S23" s="61">
+        <f>MIN(D23,F23,H23,J23,L23)</f>
+        <v>0.05</v>
+      </c>
+      <c r="U23" s="32">
+        <f>MIN(C40,E40,G40,I40,K40)</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="61">
+        <f>MIN(D40,F40,H40,J40,L40)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="21">
+        <v>913</v>
+      </c>
+      <c r="D24" s="31">
+        <v>2.39</v>
+      </c>
+      <c r="E24" s="21">
+        <v>138</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0.41</v>
+      </c>
+      <c r="G24" s="32">
+        <v>196</v>
+      </c>
+      <c r="H24" s="31">
+        <v>0.47</v>
+      </c>
+      <c r="I24" s="32">
+        <v>8</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="K24" s="32">
+        <v>63</v>
+      </c>
+      <c r="L24" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="O24" s="32">
+        <f>MIN(C7,E7,G7,I7,K7)</f>
+        <v>8</v>
+      </c>
+      <c r="P24" s="61">
+        <f>MIN(D7,F7,H7,J7,L7)</f>
+        <v>0.09</v>
+      </c>
+      <c r="R24" s="32">
+        <f>MIN(C24,E24,G24,I24,K24)</f>
+        <v>8</v>
+      </c>
+      <c r="S24" s="63">
+        <f>MIN(D24,F24,H24,J24,L24)</f>
+        <v>0.03</v>
+      </c>
+      <c r="U24" s="60">
+        <f>MIN(C41,E41,G41,I41,K41)</f>
+        <v>3</v>
+      </c>
+      <c r="V24" s="61">
+        <f>MIN(D41,F41,H41,J41,L41)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21">
+        <v>399</v>
+      </c>
+      <c r="D25" s="31">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E25" s="21">
+        <v>475</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1.87</v>
+      </c>
+      <c r="G25" s="32">
+        <v>370</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0.92</v>
+      </c>
+      <c r="I25" s="32">
+        <v>301</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.78</v>
+      </c>
+      <c r="K25" s="32">
+        <v>295</v>
+      </c>
+      <c r="L25" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="O25" s="60">
+        <f>MIN(C8,E8,G8,I8,K8)</f>
+        <v>16</v>
+      </c>
+      <c r="P25" s="63">
+        <f>MIN(D8,F8,H8,J8,L8)</f>
+        <v>0.17</v>
+      </c>
+      <c r="R25" s="32">
+        <f>MIN(C25,E25,G25,I25,K25)</f>
+        <v>295</v>
+      </c>
+      <c r="S25" s="61">
+        <f>MIN(D25,F25,H25,J25,L25)</f>
+        <v>0.78</v>
+      </c>
+      <c r="U25" s="32">
+        <f>MIN(C42,E42,G42,I42,K42)</f>
+        <v>46</v>
+      </c>
+      <c r="V25" s="61">
+        <f>MIN(D42,F42,H42,J42,L42)</f>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21">
+        <v>6</v>
+      </c>
+      <c r="D26" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1320</v>
+      </c>
+      <c r="F26" s="30">
+        <v>4.24</v>
+      </c>
+      <c r="G26" s="32">
+        <v>366</v>
+      </c>
+      <c r="H26" s="31">
+        <v>0.94</v>
+      </c>
+      <c r="I26" s="32">
+        <v>889</v>
+      </c>
+      <c r="J26" s="30">
+        <v>2.17</v>
+      </c>
+      <c r="K26" s="32">
+        <v>1942</v>
+      </c>
+      <c r="L26" s="31">
+        <v>4.87</v>
+      </c>
+      <c r="O26" s="60">
+        <f>MIN(C9,E9,G9,I9,K9)</f>
+        <v>2</v>
+      </c>
+      <c r="P26" s="63">
+        <f>MIN(D9,F9,H9,J9,L9)</f>
+        <v>0.05</v>
+      </c>
+      <c r="R26" s="32">
+        <f>MIN(C26,E26,G26,I26,K26)</f>
+        <v>6</v>
+      </c>
+      <c r="S26" s="63">
+        <f>MIN(D26,F26,H26,J26,L26)</f>
+        <v>0.05</v>
+      </c>
+      <c r="U26" s="60">
+        <f>MIN(C43,E43,G43,I43,K43)</f>
+        <v>2</v>
+      </c>
+      <c r="V26" s="61">
+        <f>MIN(D43,F43,H43,J43,L43)</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1862</v>
+      </c>
+      <c r="D27" s="27">
+        <v>5.79</v>
+      </c>
+      <c r="E27" s="21">
+        <v>19214</v>
+      </c>
+      <c r="F27" s="26">
+        <v>44.87</v>
+      </c>
+      <c r="G27" s="32">
+        <v>451</v>
+      </c>
+      <c r="H27" s="27">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I27" s="32">
+        <v>2548</v>
+      </c>
+      <c r="J27" s="26">
+        <v>6.07</v>
+      </c>
+      <c r="K27" s="32">
+        <v>2221</v>
+      </c>
+      <c r="L27" s="27">
+        <v>4.29</v>
+      </c>
+      <c r="O27" s="60">
+        <f>MIN(C10,E10,G10,I10,K10)</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="63">
+        <f>MIN(D10,F10,H10,J10,L10)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R27" s="32">
+        <f>MIN(C27,E27,G27,I27,K27)</f>
+        <v>451</v>
+      </c>
+      <c r="S27" s="61">
+        <f>MIN(D27,F27,H27,J27,L27)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U27" s="32">
+        <f>MIN(C44,E44,G44,I44,K44)</f>
+        <v>88</v>
+      </c>
+      <c r="V27" s="61">
+        <f>MIN(D44,F44,H44,J44,L44)</f>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1314</v>
+      </c>
+      <c r="D28" s="27">
+        <v>5.01</v>
+      </c>
+      <c r="E28" s="21">
+        <v>9594</v>
+      </c>
+      <c r="F28" s="26">
+        <v>31.45</v>
+      </c>
+      <c r="G28" s="32">
+        <v>572</v>
+      </c>
+      <c r="H28" s="27">
+        <v>1.55</v>
+      </c>
+      <c r="I28" s="32">
+        <v>822</v>
+      </c>
+      <c r="J28" s="26">
+        <v>2.04</v>
+      </c>
+      <c r="K28" s="32">
+        <v>2235</v>
+      </c>
+      <c r="L28" s="27">
+        <v>5.62</v>
+      </c>
+      <c r="O28" s="60">
+        <f>MIN(C11,E11,G11,I11,K11)</f>
+        <v>17</v>
+      </c>
+      <c r="P28" s="63">
+        <f>MIN(D11,F11,H11,J11,L11)</f>
+        <v>0.13</v>
+      </c>
+      <c r="R28" s="32">
+        <f>MIN(C28,E28,G28,I28,K28)</f>
+        <v>572</v>
+      </c>
+      <c r="S28" s="61">
+        <f>MIN(D28,F28,H28,J28,L28)</f>
+        <v>1.55</v>
+      </c>
+      <c r="U28" s="32">
+        <f>MIN(C45,E45,G45,I45,K45)</f>
+        <v>127</v>
+      </c>
+      <c r="V28" s="61">
+        <f>MIN(D45,F45,H45,J45,L45)</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1095</v>
+      </c>
+      <c r="D29" s="27">
+        <v>3.03</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1298</v>
+      </c>
+      <c r="F29" s="26">
+        <v>3.68</v>
+      </c>
+      <c r="G29" s="32">
+        <v>151</v>
+      </c>
+      <c r="H29" s="27">
+        <v>0.34</v>
+      </c>
+      <c r="I29" s="32">
+        <v>435</v>
+      </c>
+      <c r="J29" s="26">
+        <v>0.92</v>
+      </c>
+      <c r="K29" s="32">
+        <v>895</v>
+      </c>
+      <c r="L29" s="27">
+        <v>1.98</v>
+      </c>
+      <c r="O29" s="60">
+        <f>MIN(C12,E12,G12,I12,K12)</f>
+        <v>12</v>
+      </c>
+      <c r="P29" s="63">
+        <f>MIN(D12,F12,H12,J12,L12)</f>
+        <v>0.11</v>
+      </c>
+      <c r="R29" s="32">
+        <f>MIN(C29,E29,G29,I29,K29)</f>
+        <v>151</v>
+      </c>
+      <c r="S29" s="61">
+        <f>MIN(D29,F29,H29,J29,L29)</f>
+        <v>0.34</v>
+      </c>
+      <c r="U29" s="32">
+        <f>MIN(C46,E46,G46,I46,K46)</f>
+        <v>21</v>
+      </c>
+      <c r="V29" s="61">
+        <f>MIN(D46,F46,H46,J46,L46)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="21">
+        <v>43575</v>
+      </c>
+      <c r="D30" s="27">
+        <v>126.63</v>
+      </c>
+      <c r="E30" s="22">
+        <v>144219</v>
+      </c>
+      <c r="F30" s="28">
+        <v>437.15</v>
+      </c>
+      <c r="G30" s="33">
+        <v>4908</v>
+      </c>
+      <c r="H30" s="29">
+        <v>10.55</v>
+      </c>
+      <c r="I30" s="33">
+        <v>98030</v>
+      </c>
+      <c r="J30" s="28">
+        <v>217.34</v>
+      </c>
+      <c r="K30" s="33">
+        <v>23228</v>
+      </c>
+      <c r="L30" s="29">
+        <v>53.13</v>
+      </c>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="44">
+        <f>MIN(C13,E13,G13,I13,K13)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="64">
+        <f>MIN(D13,F13,H13,J13,L13)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R30" s="33">
+        <f>MIN(C30,E30,G30,I30,K30)</f>
+        <v>4908</v>
+      </c>
+      <c r="S30" s="62">
+        <f>MIN(D30,F30,H30,J30,L30)</f>
+        <v>10.55</v>
+      </c>
+      <c r="U30" s="44">
+        <f>MIN(C47,E47,G47,I47,K47)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="62">
+        <f>MIN(D47,F47,H47,J47,L47)</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M31" s="58"/>
+      <c r="N31" s="57"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="41">
+        <f>AVERAGE(Tabel1517[backtracks])</f>
+        <v>5132.454545454545</v>
+      </c>
+      <c r="D32" s="37">
+        <f>AVERAGE(Tabel1517[CPU (s)])</f>
+        <v>14.851818181818182</v>
+      </c>
+      <c r="E32" s="36">
+        <f t="shared" ref="E32:L32" si="2">AVERAGE(E20:E30)</f>
+        <v>16030.181818181818</v>
+      </c>
+      <c r="F32" s="36">
+        <f t="shared" si="2"/>
+        <v>47.631818181818183</v>
+      </c>
+      <c r="G32" s="41">
+        <f t="shared" si="2"/>
+        <v>776.09090909090912</v>
+      </c>
+      <c r="H32" s="47">
+        <f t="shared" si="2"/>
+        <v>1.7609090909090908</v>
+      </c>
+      <c r="I32" s="36">
+        <f t="shared" si="2"/>
+        <v>9399.363636363636</v>
+      </c>
+      <c r="J32" s="36">
+        <f t="shared" si="2"/>
+        <v>20.934545454545454</v>
+      </c>
+      <c r="K32" s="41">
+        <f t="shared" si="2"/>
+        <v>2834.090909090909</v>
+      </c>
+      <c r="L32" s="37">
+        <f t="shared" si="2"/>
+        <v>6.5154545454545456</v>
+      </c>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="42">
+        <f>MEDIAN(Tabel1517[backtracks])</f>
+        <v>1095</v>
+      </c>
+      <c r="D33" s="40">
+        <f>MEDIAN(Tabel1517[CPU (s)])</f>
+        <v>3.03</v>
+      </c>
+      <c r="E33" s="39">
+        <f t="shared" ref="E33:L33" si="3">MEDIAN(E20:E30)</f>
+        <v>475</v>
+      </c>
+      <c r="F33" s="39">
+        <f t="shared" si="3"/>
+        <v>1.87</v>
+      </c>
+      <c r="G33" s="42">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="H33" s="40">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="I33" s="39">
+        <f t="shared" si="3"/>
+        <v>301</v>
+      </c>
+      <c r="J33" s="46">
+        <f t="shared" si="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="3"/>
+        <v>295</v>
+      </c>
+      <c r="L33" s="40">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="M33" s="56"/>
+      <c r="N33" s="54"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.03</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0.03</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="K37" s="32">
+        <v>0</v>
+      </c>
+      <c r="L37" s="27">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0</v>
+      </c>
+      <c r="D38" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0</v>
+      </c>
+      <c r="J38" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="K38" s="32">
+        <v>0</v>
+      </c>
+      <c r="L38" s="31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="21">
+        <v>4</v>
+      </c>
+      <c r="D39" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="G39" s="32">
+        <v>2</v>
+      </c>
+      <c r="H39" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0</v>
+      </c>
+      <c r="J39" s="30">
+        <v>0.03</v>
+      </c>
+      <c r="K39" s="32">
+        <v>0</v>
+      </c>
+      <c r="L39" s="31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="G40" s="32">
+        <v>1</v>
+      </c>
+      <c r="H40" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="I40" s="32">
+        <v>3</v>
+      </c>
+      <c r="J40" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="K40" s="32">
+        <v>3</v>
+      </c>
+      <c r="L40" s="31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="21">
+        <v>112</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1.18</v>
+      </c>
+      <c r="E41" s="21">
+        <v>77</v>
+      </c>
+      <c r="F41" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="32">
+        <v>107</v>
+      </c>
+      <c r="H41" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="I41" s="32">
+        <v>3</v>
+      </c>
+      <c r="J41" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="K41" s="32">
+        <v>25</v>
+      </c>
+      <c r="L41" s="31">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="21">
+        <v>98</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="E42" s="21">
+        <v>46</v>
+      </c>
+      <c r="F42" s="30">
+        <v>0.84</v>
+      </c>
+      <c r="G42" s="32">
+        <v>127</v>
+      </c>
+      <c r="H42" s="31">
+        <v>1.51</v>
+      </c>
+      <c r="I42" s="32">
+        <v>52</v>
+      </c>
+      <c r="J42" s="30">
+        <v>0.64</v>
+      </c>
+      <c r="K42" s="32">
+        <v>54</v>
+      </c>
+      <c r="L42" s="31">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="21">
+        <v>2</v>
+      </c>
+      <c r="D43" s="31">
+        <v>0.08</v>
+      </c>
+      <c r="E43" s="21">
+        <v>235</v>
+      </c>
+      <c r="F43" s="30">
+        <v>2.98</v>
+      </c>
+      <c r="G43" s="32">
+        <v>20</v>
+      </c>
+      <c r="H43" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="I43" s="32">
+        <v>196</v>
+      </c>
+      <c r="J43" s="30">
+        <v>2.35</v>
+      </c>
+      <c r="K43" s="32">
+        <v>484</v>
+      </c>
+      <c r="L43" s="31">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="21">
+        <v>361</v>
+      </c>
+      <c r="D44" s="27">
+        <v>4.41</v>
+      </c>
+      <c r="E44" s="21">
+        <v>1363</v>
+      </c>
+      <c r="F44" s="26">
+        <v>17.53</v>
+      </c>
+      <c r="G44" s="32">
+        <v>88</v>
+      </c>
+      <c r="H44" s="27">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I44" s="32">
+        <v>171</v>
+      </c>
+      <c r="J44" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="K44" s="32">
+        <v>171</v>
+      </c>
+      <c r="L44" s="27">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="21">
+        <v>260</v>
+      </c>
+      <c r="D45" s="27">
+        <v>3.62</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1120</v>
+      </c>
+      <c r="F45" s="26">
+        <v>13.49</v>
+      </c>
+      <c r="G45" s="32">
+        <v>127</v>
+      </c>
+      <c r="H45" s="27">
+        <v>1.48</v>
+      </c>
+      <c r="I45" s="32">
+        <v>186</v>
+      </c>
+      <c r="J45" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K45" s="32">
+        <v>372</v>
+      </c>
+      <c r="L45" s="27">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="21">
+        <v>221</v>
+      </c>
+      <c r="D46" s="27">
+        <v>1.98</v>
+      </c>
+      <c r="E46" s="21">
+        <v>261</v>
+      </c>
+      <c r="F46" s="26">
+        <v>2.42</v>
+      </c>
+      <c r="G46" s="32">
+        <v>21</v>
+      </c>
+      <c r="H46" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="32">
+        <v>32</v>
+      </c>
+      <c r="J46" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="K46" s="32">
+        <v>82</v>
+      </c>
+      <c r="L46" s="27">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0</v>
+      </c>
+      <c r="D47" s="27">
+        <v>0.05</v>
+      </c>
+      <c r="E47" s="22">
+        <v>0</v>
+      </c>
+      <c r="F47" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0</v>
+      </c>
+      <c r="J47" s="28">
+        <v>0.03</v>
+      </c>
+      <c r="K47" s="33">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="52"/>
+      <c r="N48" s="55"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="41">
+        <f>AVERAGE(Tabel151718[backtracks])</f>
+        <v>96.454545454545453</v>
+      </c>
+      <c r="D49" s="37">
+        <f>AVERAGE(Tabel151718[CPU (s)])</f>
+        <v>1.1627272727272731</v>
+      </c>
+      <c r="E49" s="36">
+        <f t="shared" ref="E49:L49" si="4">AVERAGE(E37:E47)</f>
+        <v>282.09090909090907</v>
+      </c>
+      <c r="F49" s="36">
+        <f t="shared" si="4"/>
+        <v>3.47</v>
+      </c>
+      <c r="G49" s="41">
+        <f t="shared" si="4"/>
+        <v>44.81818181818182</v>
+      </c>
+      <c r="H49" s="47">
+        <f t="shared" si="4"/>
+        <v>0.5281818181818182</v>
+      </c>
+      <c r="I49" s="36">
+        <f t="shared" si="4"/>
+        <v>58.454545454545453</v>
+      </c>
+      <c r="J49" s="36">
+        <f t="shared" si="4"/>
+        <v>0.76454545454545442</v>
+      </c>
+      <c r="K49" s="41">
+        <f t="shared" si="4"/>
+        <v>108.27272727272727</v>
+      </c>
+      <c r="L49" s="37">
+        <f t="shared" si="4"/>
+        <v>1.3990909090909089</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="42">
+        <f>MEDIAN(Tabel151718[backtracks])</f>
+        <v>4</v>
+      </c>
+      <c r="D50" s="40">
+        <f>MEDIAN(Tabel151718[CPU (s)])</f>
+        <v>0.08</v>
+      </c>
+      <c r="E50" s="39">
+        <f t="shared" ref="E50:L50" si="5">MEDIAN(E37:E47)</f>
+        <v>46</v>
+      </c>
+      <c r="F50" s="39">
+        <f t="shared" si="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="G50" s="42">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H50" s="40">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="J50" s="46">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
+      </c>
+      <c r="K50" s="42">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="L50" s="40">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="41">
+        <f>AVERAGE(Tabel15[backtracks])</f>
+        <v>99.909090909090907</v>
+      </c>
+      <c r="D58" s="68">
+        <f>AVERAGE(Tabel15[CPU (s)])</f>
+        <v>0.72545454545454546</v>
+      </c>
+      <c r="E58" s="70">
+        <f>AVERAGE(E46:E56)</f>
+        <v>147.27272727272725</v>
+      </c>
+      <c r="F58" s="70">
+        <f>AVERAGE(F46:F56)</f>
+        <v>1.655</v>
+      </c>
+      <c r="G58" s="67">
+        <f>AVERAGE(G46:G56)</f>
+        <v>21.454545454545453</v>
+      </c>
+      <c r="H58" s="68">
+        <f>AVERAGE(H46:H56)</f>
+        <v>0.26954545454545453</v>
+      </c>
+      <c r="I58" s="36">
+        <f t="shared" ref="I58:L58" si="6">AVERAGE(I46:I56)</f>
+        <v>23.363636363636363</v>
+      </c>
+      <c r="J58" s="36">
+        <f t="shared" si="6"/>
+        <v>0.32113636363636361</v>
+      </c>
+      <c r="K58" s="67">
+        <f t="shared" si="6"/>
+        <v>53.818181818181813</v>
+      </c>
+      <c r="L58" s="68">
+        <f t="shared" si="6"/>
+        <v>0.67727272727272725</v>
+      </c>
+      <c r="N58" s="67">
+        <f>(AVERAGE(C58,E58,G58,I58,K58))</f>
+        <v>69.163636363636357</v>
+      </c>
+      <c r="O58" s="68">
+        <f>(AVERAGE(D58,F58,H58,J58,L58))</f>
+        <v>0.72968181818181821</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="66">
+        <f>(MEDIAN(Tabel15[backtracks]))</f>
+        <v>16</v>
+      </c>
+      <c r="D59" s="40">
+        <f>(MEDIAN(Tabel15[CPU (s)]))</f>
+        <v>0.17</v>
+      </c>
+      <c r="E59" s="39">
+        <f>MEDIAN(E46:E56)</f>
+        <v>153.5</v>
+      </c>
+      <c r="F59" s="71">
+        <f>MEDIAN(F46:F56)</f>
+        <v>1.56</v>
+      </c>
+      <c r="G59" s="65">
+        <f>MEDIAN(G46:G56)</f>
+        <v>20.5</v>
+      </c>
+      <c r="H59" s="69">
+        <f>MEDIAN(H46:H56)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="71">
+        <f t="shared" ref="I59:L59" si="7">MEDIAN(I46:I56)</f>
+        <v>17.5</v>
+      </c>
+      <c r="J59" s="71">
+        <f t="shared" si="7"/>
+        <v>0.245</v>
+      </c>
+      <c r="K59" s="65">
+        <f t="shared" si="7"/>
+        <v>53.5</v>
+      </c>
+      <c r="L59" s="71">
+        <f t="shared" si="7"/>
+        <v>0.64</v>
+      </c>
+      <c r="N59" s="74">
+        <f>(AVERAGE(C59,E59,G59,I59,K59))</f>
+        <v>52.2</v>
+      </c>
+      <c r="O59" s="73">
+        <f>(AVERAGE(D59,F59,H59,J59,L59))</f>
+        <v>0.57300000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="51"/>
+      <c r="O60" s="72"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="41">
+        <f>AVERAGE(Tabel1517[backtracks])</f>
+        <v>5132.454545454545</v>
+      </c>
+      <c r="D61" s="37">
+        <f>AVERAGE(Tabel1517[CPU (s)])</f>
+        <v>14.851818181818182</v>
+      </c>
+      <c r="E61" s="36">
+        <f t="shared" ref="E61:L61" si="8">AVERAGE(E49:E59)</f>
+        <v>157.21590909090907</v>
+      </c>
+      <c r="F61" s="36">
+        <f t="shared" si="8"/>
+        <v>1.8462499999999999</v>
+      </c>
+      <c r="G61" s="41">
+        <f t="shared" si="8"/>
+        <v>26.693181818181817</v>
+      </c>
+      <c r="H61" s="47">
+        <f t="shared" si="8"/>
+        <v>0.32443181818181821</v>
+      </c>
+      <c r="I61" s="36">
+        <f t="shared" si="8"/>
+        <v>25.579545454545453</v>
+      </c>
+      <c r="J61" s="36">
+        <f t="shared" si="8"/>
+        <v>0.35267045454545454</v>
+      </c>
+      <c r="K61" s="41">
+        <f t="shared" si="8"/>
+        <v>60.147727272727266</v>
+      </c>
+      <c r="L61" s="37">
+        <f t="shared" si="8"/>
+        <v>0.76909090909090905</v>
+      </c>
+      <c r="N61" s="74">
+        <f t="shared" ref="N61:N65" si="9">(AVERAGE(C61,E61,G61,I61,K61))</f>
+        <v>1080.4181818181817</v>
+      </c>
+      <c r="O61" s="75">
+        <f t="shared" ref="O61:O65" si="10">(AVERAGE(D61,F61,H61,J61,L61))</f>
+        <v>3.628852272727273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="42">
+        <f>MEDIAN(Tabel1517[backtracks])</f>
+        <v>1095</v>
+      </c>
+      <c r="D62" s="40">
+        <f>MEDIAN(Tabel1517[CPU (s)])</f>
+        <v>3.03</v>
+      </c>
+      <c r="E62" s="39">
+        <f t="shared" ref="E62:L62" si="11">MEDIAN(E49:E59)</f>
+        <v>150.38636363636363</v>
+      </c>
+      <c r="F62" s="39">
+        <f t="shared" si="11"/>
+        <v>1.6074999999999999</v>
+      </c>
+      <c r="G62" s="42">
+        <f t="shared" si="11"/>
+        <v>20.977272727272727</v>
+      </c>
+      <c r="H62" s="40">
+        <f t="shared" si="11"/>
+        <v>0.25977272727272727</v>
+      </c>
+      <c r="I62" s="39">
+        <f t="shared" si="11"/>
+        <v>20.43181818181818</v>
+      </c>
+      <c r="J62" s="46">
+        <f t="shared" si="11"/>
+        <v>0.28306818181818183</v>
+      </c>
+      <c r="K62" s="42">
+        <f t="shared" si="11"/>
+        <v>53.659090909090907</v>
+      </c>
+      <c r="L62" s="40">
+        <f t="shared" si="11"/>
+        <v>0.65863636363636369</v>
+      </c>
+      <c r="N62" s="74">
+        <f t="shared" si="9"/>
+        <v>268.09090909090912</v>
+      </c>
+      <c r="O62" s="75">
+        <f t="shared" si="10"/>
+        <v>1.1677954545454543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N63" s="51"/>
+      <c r="O63" s="72"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="67">
+        <f>AVERAGE(Tabel151718[backtracks])</f>
+        <v>96.454545454545453</v>
+      </c>
+      <c r="D64" s="37">
+        <f>AVERAGE(Tabel151718[CPU (s)])</f>
+        <v>1.1627272727272731</v>
+      </c>
+      <c r="E64" s="36">
+        <f t="shared" ref="E64:L64" si="12">AVERAGE(E52:E62)</f>
+        <v>152.09375</v>
+      </c>
+      <c r="F64" s="36">
+        <f t="shared" si="12"/>
+        <v>1.6671874999999998</v>
+      </c>
+      <c r="G64" s="41">
+        <f t="shared" si="12"/>
+        <v>22.40625</v>
+      </c>
+      <c r="H64" s="47">
+        <f t="shared" si="12"/>
+        <v>0.2759375</v>
+      </c>
+      <c r="I64" s="70">
+        <f t="shared" si="12"/>
+        <v>21.71875</v>
+      </c>
+      <c r="J64" s="70">
+        <f t="shared" si="12"/>
+        <v>0.30046875000000001</v>
+      </c>
+      <c r="K64" s="41">
+        <f t="shared" si="12"/>
+        <v>55.281249999999993</v>
+      </c>
+      <c r="L64" s="37">
+        <f t="shared" si="12"/>
+        <v>0.68625000000000003</v>
+      </c>
+      <c r="N64" s="74">
+        <f t="shared" ref="N64:N65" si="13">(AVERAGE(C64,E64,G64,I64,K64))</f>
+        <v>69.590909090909093</v>
+      </c>
+      <c r="O64" s="75">
+        <f t="shared" ref="O64:O65" si="14">(AVERAGE(D64,F64,H64,J64,L64))</f>
+        <v>0.81851420454545454</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="65">
+        <f>MEDIAN(Tabel151718[backtracks])</f>
+        <v>4</v>
+      </c>
+      <c r="D65" s="69">
+        <f>MEDIAN(Tabel151718[CPU (s)])</f>
+        <v>0.08</v>
+      </c>
+      <c r="E65" s="71">
+        <f t="shared" ref="E65:L65" si="15">MEDIAN(E52:E62)</f>
+        <v>151.94318181818181</v>
+      </c>
+      <c r="F65" s="39">
+        <f t="shared" si="15"/>
+        <v>1.6312500000000001</v>
+      </c>
+      <c r="G65" s="42">
+        <f t="shared" si="15"/>
+        <v>21.21590909090909</v>
+      </c>
+      <c r="H65" s="40">
+        <f t="shared" si="15"/>
+        <v>0.2646590909090909</v>
+      </c>
+      <c r="I65" s="39">
+        <f t="shared" si="15"/>
+        <v>21.897727272727273</v>
+      </c>
+      <c r="J65" s="46">
+        <f t="shared" si="15"/>
+        <v>0.30210227272727275</v>
+      </c>
+      <c r="K65" s="42">
+        <f t="shared" si="15"/>
+        <v>53.73863636363636</v>
+      </c>
+      <c r="L65" s="40">
+        <f t="shared" si="15"/>
+        <v>0.66795454545454547</v>
+      </c>
+      <c r="N65" s="65">
+        <f t="shared" si="13"/>
+        <v>50.559090909090912</v>
+      </c>
+      <c r="O65" s="76">
+        <f t="shared" si="14"/>
+        <v>0.58919318181818192</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:D13">
+    <cfRule type="top10" dxfId="191" priority="200" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D13">
+    <cfRule type="top10" dxfId="190" priority="195" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="189" priority="196" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="188" priority="199" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C13">
+    <cfRule type="top10" dxfId="187" priority="194" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="186" priority="197" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="185" priority="198" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:F13">
+    <cfRule type="top10" dxfId="184" priority="193" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F13">
+    <cfRule type="top10" dxfId="183" priority="188" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="182" priority="189" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="181" priority="192" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E13">
+    <cfRule type="top10" dxfId="180" priority="187" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="179" priority="190" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="178" priority="191" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:H13">
+    <cfRule type="top10" dxfId="177" priority="186" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="top10" dxfId="176" priority="181" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="175" priority="182" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="174" priority="185" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G13">
+    <cfRule type="top10" dxfId="173" priority="180" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="172" priority="183" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="171" priority="184" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:J13">
+    <cfRule type="top10" dxfId="170" priority="179" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J13">
+    <cfRule type="top10" dxfId="169" priority="174" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="168" priority="175" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="167" priority="178" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I13">
+    <cfRule type="top10" dxfId="166" priority="173" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="165" priority="176" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="164" priority="177" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:L13">
+    <cfRule type="top10" dxfId="163" priority="172" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L13">
+    <cfRule type="top10" dxfId="162" priority="167" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="161" priority="168" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="160" priority="171" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K13">
+    <cfRule type="top10" dxfId="159" priority="166" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="158" priority="169" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="157" priority="170" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:L4">
+    <cfRule type="top10" dxfId="156" priority="165" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:L3">
+    <cfRule type="top10" dxfId="155" priority="164" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:L5">
+    <cfRule type="top10" dxfId="154" priority="162" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="163" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6 E6 G6 I6 K6">
+    <cfRule type="top10" dxfId="153" priority="161" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7 I7 G7 E7 C7">
+    <cfRule type="top10" dxfId="152" priority="160" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8 E8 G8 I8 K8">
+    <cfRule type="top10" dxfId="151" priority="159" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9 E9 G9 I9 K9">
+    <cfRule type="top10" dxfId="150" priority="158" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10 E10 G10 I10 K10">
+    <cfRule type="top10" dxfId="149" priority="157" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11 E11 G11 I11 K11">
+    <cfRule type="top10" dxfId="148" priority="156" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12 I12 G12 E12 C12">
+    <cfRule type="top10" dxfId="147" priority="155" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15 E15 G15 I15 K15">
+    <cfRule type="top10" dxfId="146" priority="153" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="154" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16 E16 G16 I16 K16">
+    <cfRule type="top10" dxfId="145" priority="152" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15 J15 H15 F15 D15">
+    <cfRule type="top10" dxfId="144" priority="151" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 F16 H16 J16 L16">
+    <cfRule type="top10" dxfId="143" priority="150" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D30">
+    <cfRule type="top10" dxfId="142" priority="149" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D30">
+    <cfRule type="top10" dxfId="141" priority="144" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="140" priority="145" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="139" priority="148" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C30">
+    <cfRule type="top10" dxfId="138" priority="143" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="137" priority="146" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="136" priority="147" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:F30">
+    <cfRule type="top10" dxfId="135" priority="142" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F30">
+    <cfRule type="top10" dxfId="134" priority="137" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="133" priority="138" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="132" priority="141" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:E30">
+    <cfRule type="top10" dxfId="131" priority="136" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="130" priority="139" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="129" priority="140" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:H30">
+    <cfRule type="top10" dxfId="128" priority="135" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:H30">
+    <cfRule type="top10" dxfId="127" priority="130" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="126" priority="131" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="125" priority="134" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G30">
+    <cfRule type="top10" dxfId="124" priority="129" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="123" priority="132" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="122" priority="133" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:J30">
+    <cfRule type="top10" dxfId="121" priority="128" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J30">
+    <cfRule type="top10" dxfId="120" priority="123" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="119" priority="124" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="118" priority="127" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I30">
+    <cfRule type="top10" dxfId="117" priority="122" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="116" priority="125" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="115" priority="126" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:L30">
+    <cfRule type="top10" dxfId="114" priority="121" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L30">
+    <cfRule type="top10" dxfId="113" priority="116" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="112" priority="117" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="111" priority="120" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K30">
+    <cfRule type="top10" dxfId="110" priority="115" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="109" priority="118" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="108" priority="119" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:L21">
+    <cfRule type="top10" dxfId="107" priority="114" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:L20">
+    <cfRule type="top10" dxfId="106" priority="113" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:L22">
+    <cfRule type="top10" dxfId="105" priority="111" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="112" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23 E23 G23 I23 K23">
+    <cfRule type="top10" dxfId="104" priority="110" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24 I24 G24 E24 C24">
+    <cfRule type="top10" dxfId="103" priority="109" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25 E25 G25 I25 K25">
+    <cfRule type="top10" dxfId="102" priority="108" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26 E26 G26 I26 K26">
+    <cfRule type="top10" dxfId="101" priority="107" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27 E27 G27 I27 K27">
+    <cfRule type="top10" dxfId="100" priority="106" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 E28 G28 I28 K28">
+    <cfRule type="top10" dxfId="99" priority="105" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29 I29 G29 E29 C29">
+    <cfRule type="top10" dxfId="98" priority="104" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:L32">
+    <cfRule type="top10" dxfId="97" priority="102" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="103" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:L33">
+    <cfRule type="top10" dxfId="96" priority="101" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20 G20 E20 C20 K20">
+    <cfRule type="top10" dxfId="95" priority="98" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22 E22 G22 I22 K22">
+    <cfRule type="top10" dxfId="94" priority="97" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30 E30 G30 I30 K30">
+    <cfRule type="top10" dxfId="93" priority="96" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33 E33 G33 I33 K33">
+    <cfRule type="top10" dxfId="92" priority="95" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32 E32 G32 I32 K32">
+    <cfRule type="top10" dxfId="91" priority="94" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:D47">
+    <cfRule type="top10" dxfId="90" priority="93" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D47">
+    <cfRule type="top10" dxfId="89" priority="88" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="89" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="92" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C47">
+    <cfRule type="top10" dxfId="86" priority="87" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="90" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="91" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:F47">
+    <cfRule type="top10" dxfId="83" priority="86" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F47">
+    <cfRule type="top10" dxfId="82" priority="81" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="82" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="85" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E47">
+    <cfRule type="top10" dxfId="79" priority="80" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="83" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="84" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H47">
+    <cfRule type="top10" dxfId="76" priority="79" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H47">
+    <cfRule type="top10" dxfId="75" priority="74" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="75" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="78" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:G47">
+    <cfRule type="top10" dxfId="72" priority="73" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="76" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="77" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:J47">
+    <cfRule type="top10" dxfId="69" priority="72" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:J47">
+    <cfRule type="top10" dxfId="68" priority="67" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="68" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="71" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:I47">
+    <cfRule type="top10" dxfId="65" priority="66" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="69" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="70" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:L47">
+    <cfRule type="top10" dxfId="62" priority="65" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37:L47">
+    <cfRule type="top10" dxfId="61" priority="60" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="61" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="64" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37:K47">
+    <cfRule type="top10" dxfId="58" priority="59" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="62" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="63" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:L38">
+    <cfRule type="top10" dxfId="55" priority="58" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:L37">
+    <cfRule type="top10" dxfId="54" priority="57" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39:L39">
+    <cfRule type="top10" dxfId="53" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="56" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40 E40 G40 I40 K40">
+    <cfRule type="top10" dxfId="52" priority="54" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41 I41 G41 E41 C41">
+    <cfRule type="top10" dxfId="51" priority="53" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42 E42 G42 I42 K42">
+    <cfRule type="top10" dxfId="50" priority="52" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43 E43 G43 I43 K43">
+    <cfRule type="top10" dxfId="49" priority="51" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44 E44 G44 I44 K44">
+    <cfRule type="top10" dxfId="48" priority="50" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45 E45 G45 I45 K45">
+    <cfRule type="top10" dxfId="47" priority="49" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46 I46 G46 E46 C46">
+    <cfRule type="top10" dxfId="46" priority="48" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:L49">
+    <cfRule type="top10" dxfId="45" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" priority="47" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:L50">
+    <cfRule type="top10" dxfId="44" priority="45" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37 G37 E37 C37 K37">
+    <cfRule type="top10" dxfId="43" priority="44" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39 E39 G39 I39 K39">
+    <cfRule type="top10" dxfId="42" priority="43" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C47 E47 G47 I47 K47">
+    <cfRule type="top10" dxfId="41" priority="42" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50 E50 G50 I50 K50">
+    <cfRule type="top10" dxfId="40" priority="41" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49 E49 G49 I49 K49">
+    <cfRule type="top10" dxfId="39" priority="40" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N16 N32:N33">
+    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N16 N32:N33">
+    <cfRule type="top10" dxfId="37" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="36" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="37" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N16 N32:N33">
+    <cfRule type="top10" dxfId="34" priority="31" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20 R20 U20">
+    <cfRule type="top10" dxfId="32" priority="16" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/APLAI/experiments/results.xlsx
+++ b/APLAI/experiments/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -431,3775 +428,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="518">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="281">
     <dxf>
       <font>
         <b val="0"/>
@@ -4567,6 +803,1303 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="#,##0.000"/>
     </dxf>
     <dxf>
@@ -4918,6 +2451,708 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5185,13 +3420,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>743889</c:v>
+                  <c:v>733001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1006605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3484972</c:v>
+                  <c:v>3481532</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>884750</c:v>
@@ -5200,7 +3435,7 @@
                   <c:v>1008727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19546090</c:v>
+                  <c:v>19273866</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6834612</c:v>
@@ -5212,7 +3447,7 @@
                   <c:v>24684953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28620804</c:v>
+                  <c:v>28219004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>721636</c:v>
@@ -5230,11 +3465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115613056"/>
-        <c:axId val="115623040"/>
+        <c:axId val="115198592"/>
+        <c:axId val="115208576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115613056"/>
+        <c:axId val="115198592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +3478,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115623040"/>
+        <c:crossAx val="115208576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5251,7 +3486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115623040"/>
+        <c:axId val="115208576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5262,7 +3497,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115613056"/>
+        <c:crossAx val="115198592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5319,6 +3554,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5565,13 +3801,13 @@
                 <c:formatCode>#.##0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40600000000000003</c:v>
+                  <c:v>0.40199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.106</c:v>
@@ -5580,7 +3816,7 @@
                   <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2609999999999997</c:v>
+                  <c:v>2.1840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.80700000000000005</c:v>
@@ -5592,7 +3828,7 @@
                   <c:v>2.9940000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.347</c:v>
+                  <c:v>3.2269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8.8999999999999996E-2</c:v>
@@ -5610,11 +3846,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115653248"/>
-        <c:axId val="115659136"/>
+        <c:axId val="125601664"/>
+        <c:axId val="125603200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115653248"/>
+        <c:axId val="125601664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5623,7 +3859,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115659136"/>
+        <c:crossAx val="125603200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5631,7 +3867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115659136"/>
+        <c:axId val="125603200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5642,13 +3878,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115653248"/>
+        <c:crossAx val="125601664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5770,11 +4007,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A3:D14" totalsRowShown="0" headerRowDxfId="517">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel4" displayName="Tabel4" ref="A3:D14" totalsRowShown="0" headerRowDxfId="203">
   <autoFilter ref="A3:D14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="516"/>
-    <tableColumn id="2" name="inferences" dataDxfId="515"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="202"/>
+    <tableColumn id="2" name="inferences" dataDxfId="201"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5783,47 +4020,47 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabel15" displayName="Tabel15" ref="B2:D13" totalsRowShown="0" headerRowDxfId="487" tableBorderDxfId="486">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabel15" displayName="Tabel15" ref="B2:D13" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="B2:D13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Kolom1" dataDxfId="485"/>
-    <tableColumn id="2" name="backtracks" dataDxfId="484"/>
-    <tableColumn id="3" name="CPU (s)" dataDxfId="483"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="12"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="11"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabel1517" displayName="Tabel1517" ref="B19:D30" totalsRowShown="0" headerRowDxfId="482" tableBorderDxfId="481">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabel1517" displayName="Tabel1517" ref="B19:D30" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B19:D30"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Kolom1" dataDxfId="480"/>
-    <tableColumn id="2" name="backtracks" dataDxfId="479"/>
-    <tableColumn id="3" name="CPU (s)" dataDxfId="478"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="7"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="6"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabel151718" displayName="Tabel151718" ref="B36:D47" totalsRowShown="0" headerRowDxfId="477" tableBorderDxfId="476">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabel151718" displayName="Tabel151718" ref="B36:D47" totalsRowShown="0" headerRowDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="B36:D47"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Kolom1" dataDxfId="475"/>
-    <tableColumn id="2" name="backtracks" dataDxfId="474"/>
-    <tableColumn id="3" name="CPU (s)" dataDxfId="473"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="2"/>
+    <tableColumn id="2" name="backtracks" dataDxfId="1"/>
+    <tableColumn id="3" name="CPU (s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A20:D31" totalsRowShown="0" headerRowDxfId="514">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel5" displayName="Tabel5" ref="A20:D31" totalsRowShown="0" headerRowDxfId="200">
   <autoFilter ref="A20:D31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="513"/>
-    <tableColumn id="2" name="inferences" dataDxfId="512"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="199"/>
+    <tableColumn id="2" name="inferences" dataDxfId="198"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5832,11 +4069,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="F3:I14" totalsRowShown="0" headerRowDxfId="511">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabel47" displayName="Tabel47" ref="F3:I14" totalsRowShown="0" headerRowDxfId="197">
   <autoFilter ref="F3:I14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="510"/>
-    <tableColumn id="2" name="inferences" dataDxfId="509"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="196"/>
+    <tableColumn id="2" name="inferences" dataDxfId="195"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5845,11 +4082,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel58" displayName="Tabel58" ref="F20:I31" totalsRowShown="0" headerRowDxfId="508">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel58" displayName="Tabel58" ref="F20:I31" totalsRowShown="0" headerRowDxfId="194">
   <autoFilter ref="F20:I31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="507"/>
-    <tableColumn id="2" name="inferences" dataDxfId="506"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="193"/>
+    <tableColumn id="2" name="inferences" dataDxfId="192"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5858,14 +4095,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabel511" displayName="Tabel511" ref="A34:D45" totalsRowShown="0" headerRowDxfId="505">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabel511" displayName="Tabel511" ref="A34:D45" totalsRowShown="0" headerRowDxfId="191">
   <autoFilter ref="A34:D45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="504"/>
-    <tableColumn id="2" name="inferences" dataDxfId="503">
+    <tableColumn id="1" name="Kolom1" dataDxfId="190"/>
+    <tableColumn id="2" name="inferences" dataDxfId="189">
       <calculatedColumnFormula>SUM(B4,B21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="502">
+    <tableColumn id="3" name="seconds" dataDxfId="188">
       <calculatedColumnFormula>SUM(C4,C21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -5877,14 +4114,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabel5812" displayName="Tabel5812" ref="F34:I45" totalsRowShown="0" headerRowDxfId="501">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabel5812" displayName="Tabel5812" ref="F34:I45" totalsRowShown="0" headerRowDxfId="187">
   <autoFilter ref="F34:I45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="500"/>
-    <tableColumn id="2" name="inferences" dataDxfId="499">
+    <tableColumn id="1" name="Kolom1" dataDxfId="186"/>
+    <tableColumn id="2" name="inferences" dataDxfId="185">
       <calculatedColumnFormula>SUM(G4,G21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="498">
+    <tableColumn id="3" name="seconds" dataDxfId="184">
       <calculatedColumnFormula>SUM(H4,H21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -5896,11 +4133,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabel4713" displayName="Tabel4713" ref="K3:N14" totalsRowShown="0" headerRowDxfId="497">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabel4713" displayName="Tabel4713" ref="K3:N14" totalsRowShown="0" headerRowDxfId="183">
   <autoFilter ref="K3:N14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="496"/>
-    <tableColumn id="2" name="inferences" dataDxfId="495"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="182"/>
+    <tableColumn id="2" name="inferences" dataDxfId="181"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5909,11 +4146,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabel5814" displayName="Tabel5814" ref="K20:N31" totalsRowShown="0" headerRowDxfId="494">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabel5814" displayName="Tabel5814" ref="K20:N31" totalsRowShown="0" headerRowDxfId="180">
   <autoFilter ref="K20:N31"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="493"/>
-    <tableColumn id="2" name="inferences" dataDxfId="492"/>
+    <tableColumn id="1" name="Kolom1" dataDxfId="179"/>
+    <tableColumn id="2" name="inferences" dataDxfId="178"/>
     <tableColumn id="3" name="seconds"/>
     <tableColumn id="4" name="Lips"/>
   </tableColumns>
@@ -5922,14 +4159,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabel581215" displayName="Tabel581215" ref="K34:N45" totalsRowShown="0" headerRowDxfId="491">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabel581215" displayName="Tabel581215" ref="K34:N45" totalsRowShown="0" headerRowDxfId="177">
   <autoFilter ref="K34:N45"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Kolom1" dataDxfId="490"/>
-    <tableColumn id="2" name="inferences" dataDxfId="489">
+    <tableColumn id="1" name="Kolom1" dataDxfId="176"/>
+    <tableColumn id="2" name="inferences" dataDxfId="175">
       <calculatedColumnFormula>SUM(L4,L21)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="seconds" dataDxfId="488">
+    <tableColumn id="3" name="seconds" dataDxfId="174">
       <calculatedColumnFormula>SUM(M4,M21)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="Lips">
@@ -6229,8 +4466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,14 +4475,15 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6339,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>388366</v>
+        <v>383342</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N4">
         <v>12447548</v>
@@ -6419,7 +4657,7 @@
         <v>3240922</v>
       </c>
       <c r="M6" s="3">
-        <v>0.373</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="N6">
         <v>8656253</v>
@@ -6530,10 +4768,10 @@
         <v>9</v>
       </c>
       <c r="L9" s="2">
-        <v>19247745</v>
+        <v>18979881</v>
       </c>
       <c r="M9" s="3">
-        <v>2.2229999999999999</v>
+        <v>2.137</v>
       </c>
       <c r="N9">
         <v>8628125</v>
@@ -6682,10 +4920,10 @@
         <v>13</v>
       </c>
       <c r="L13" s="2">
-        <v>28331551</v>
+        <v>27933967</v>
       </c>
       <c r="M13">
-        <v>3.31</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="N13">
         <v>8566573</v>
@@ -6773,11 +5011,11 @@
       </c>
       <c r="L16" s="10">
         <f>AVERAGE(Tabel4713[inferences])</f>
-        <v>8442684</v>
+        <v>8381732</v>
       </c>
       <c r="M16" s="11">
         <f>AVERAGE(Tabel4713[seconds])</f>
-        <v>1.0002727272727272</v>
+        <v>0.97927272727272729</v>
       </c>
       <c r="N16" s="12">
         <f>AVERAGE(Tabel4713[Lips])</f>
@@ -6885,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>355523</v>
+        <v>349659</v>
       </c>
       <c r="M21">
-        <v>4.9000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="N21">
         <v>7596597</v>
@@ -6962,10 +5200,10 @@
         <v>6</v>
       </c>
       <c r="L23" s="2">
-        <v>244050</v>
+        <v>240610</v>
       </c>
       <c r="M23" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="N23">
         <v>7822065</v>
@@ -7076,10 +5314,10 @@
         <v>9</v>
       </c>
       <c r="L26" s="2">
-        <v>298345</v>
+        <v>293985</v>
       </c>
       <c r="M26" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N26">
         <v>9562278</v>
@@ -7228,10 +5466,10 @@
         <v>13</v>
       </c>
       <c r="L30" s="2">
-        <v>289253</v>
+        <v>285037</v>
       </c>
       <c r="M30">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N30">
         <v>9270870</v>
@@ -7369,11 +5607,11 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" ref="L35:M35" si="2">SUM(L4,L21)</f>
-        <v>743889</v>
+        <v>733001</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="2"/>
-        <v>9.9000000000000005E-2</v>
+        <v>0.108</v>
       </c>
       <c r="N35" s="2">
         <f>SUM(N21,N3)</f>
@@ -7463,11 +5701,11 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" ref="L37:M37" si="5">SUM(L6,L23)</f>
-        <v>3484972</v>
+        <v>3481532</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="5"/>
-        <v>0.40600000000000003</v>
+        <v>0.40199999999999997</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
@@ -7604,11 +5842,11 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" ref="L40:M40" si="8">SUM(L9,L26)</f>
-        <v>19546090</v>
+        <v>19273866</v>
       </c>
       <c r="M40" s="13">
         <f t="shared" si="8"/>
-        <v>2.2609999999999997</v>
+        <v>2.1840000000000002</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
@@ -7792,11 +6030,11 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" ref="L44:M44" si="12">SUM(L13,L30)</f>
-        <v>28620804</v>
+        <v>28219004</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="12"/>
-        <v>3.347</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
@@ -7886,11 +6124,11 @@
       </c>
       <c r="L47" s="17">
         <f>AVERAGE(Tabel581215[inferences])</f>
-        <v>8728791.0909090918</v>
+        <v>8666213.6363636367</v>
       </c>
       <c r="M47" s="15">
         <f>AVERAGE(Tabel581215[seconds])</f>
-        <v>1.038</v>
+        <v>1.0205454545454546</v>
       </c>
       <c r="N47" s="18">
         <f>AVERAGE(Tabel581215[Lips])</f>
@@ -7902,151 +6140,151 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:D14">
-    <cfRule type="top10" dxfId="268" priority="84" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="280" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D14 G4:I14">
-    <cfRule type="top10" dxfId="267" priority="83" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="279" priority="83" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="top10" dxfId="266" priority="48" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="265" priority="75" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="264" priority="82" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="278" priority="48" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="277" priority="75" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="276" priority="82" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="top10" dxfId="263" priority="51" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="262" priority="72" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="261" priority="81" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="275" priority="51" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="274" priority="72" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="273" priority="81" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I14">
-    <cfRule type="top10" dxfId="260" priority="52" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="259" priority="71" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="258" priority="80" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="272" priority="52" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="271" priority="71" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="270" priority="80" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="top10" dxfId="257" priority="47" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="256" priority="77" percent="1" rank="10"/>
-    <cfRule type="top10" dxfId="255" priority="78" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="254" priority="79" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="269" priority="47" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="268" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="267" priority="78" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="266" priority="79" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="top10" dxfId="253" priority="76" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="265" priority="76" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14">
-    <cfRule type="top10" dxfId="252" priority="49" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="251" priority="74" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="264" priority="49" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="263" priority="74" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="top10" dxfId="250" priority="50" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="249" priority="73" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="262" priority="50" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="261" priority="73" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D31">
-    <cfRule type="top10" dxfId="248" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="260" priority="70" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C31">
-    <cfRule type="top10" dxfId="247" priority="55" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="246" priority="63" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="245" priority="69" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="259" priority="55" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="258" priority="63" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="257" priority="69" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B31">
-    <cfRule type="top10" dxfId="244" priority="54" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="243" priority="64" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="242" priority="68" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="256" priority="54" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="255" priority="64" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="254" priority="68" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G31">
-    <cfRule type="top10" dxfId="241" priority="57" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="240" priority="61" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="239" priority="67" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="253" priority="57" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="252" priority="61" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="251" priority="67" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H31">
-    <cfRule type="top10" dxfId="238" priority="58" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="237" priority="60" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="236" priority="66" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="250" priority="58" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="249" priority="60" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="248" priority="66" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I31">
-    <cfRule type="top10" dxfId="235" priority="59" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="234" priority="65" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="247" priority="59" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="246" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D31">
-    <cfRule type="top10" dxfId="233" priority="56" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="232" priority="62" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="245" priority="56" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="244" priority="62" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:I14">
-    <cfRule type="top10" dxfId="231" priority="53" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="243" priority="53" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D45">
-    <cfRule type="top10" dxfId="230" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="242" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C45">
-    <cfRule type="top10" dxfId="229" priority="31" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="228" priority="39" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="227" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="241" priority="31" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="240" priority="39" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="239" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D45">
-    <cfRule type="top10" dxfId="226" priority="30" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="225" priority="40" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="224" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="238" priority="30" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="237" priority="40" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="236" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:I45">
-    <cfRule type="top10" dxfId="223" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="222" priority="37" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="221" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="235" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="234" priority="37" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="233" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D45">
-    <cfRule type="top10" dxfId="220" priority="32" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="219" priority="38" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="232" priority="32" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="231" priority="38" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I45">
-    <cfRule type="top10" dxfId="218" priority="28" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="217" priority="29" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="230" priority="28" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="229" priority="29" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M14 N21:N31">
-    <cfRule type="top10" dxfId="216" priority="27" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="228" priority="27" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M14">
-    <cfRule type="top10" dxfId="215" priority="11" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="214" priority="23" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="213" priority="26" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="227" priority="11" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="226" priority="23" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="225" priority="26" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N31">
-    <cfRule type="top10" dxfId="212" priority="12" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="211" priority="22" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="210" priority="25" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="224" priority="12" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="223" priority="22" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="222" priority="25" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L14">
-    <cfRule type="top10" dxfId="209" priority="10" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="208" priority="24" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="221" priority="10" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="220" priority="24" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:L31">
-    <cfRule type="top10" dxfId="207" priority="14" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="206" priority="18" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="205" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="219" priority="14" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="218" priority="18" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="217" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:M31">
-    <cfRule type="top10" dxfId="204" priority="15" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="203" priority="17" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="202" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="216" priority="15" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="215" priority="17" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="214" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M14 N21:N31">
-    <cfRule type="top10" dxfId="201" priority="13" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="213" priority="13" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:N45">
-    <cfRule type="top10" dxfId="200" priority="7" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="199" priority="8" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="198" priority="9" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="212" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="211" priority="8" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="210" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:N45">
-    <cfRule type="top10" dxfId="197" priority="5" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="196" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="209" priority="5" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="208" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N14">
-    <cfRule type="top10" dxfId="195" priority="3" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="194" priority="4" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="207" priority="3" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="206" priority="4" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H45">
-    <cfRule type="top10" dxfId="193" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="205" priority="2" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35:M45">
-    <cfRule type="top10" dxfId="192" priority="1" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="204" priority="1" percent="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8069,7 +6307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
@@ -8092,26 +6330,26 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="76"/>
+      <c r="K1" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
@@ -8534,8 +6772,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="52"/>
-      <c r="N14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -8581,8 +6819,8 @@
         <f t="shared" si="0"/>
         <v>0.26818181818181819</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
@@ -8628,33 +6866,33 @@
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="54"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50" t="s">
+      <c r="D18" s="76"/>
+      <c r="E18" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50" t="s">
+      <c r="F18" s="76"/>
+      <c r="G18" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50" t="s">
+      <c r="J18" s="76"/>
+      <c r="K18" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="50"/>
+      <c r="L18" s="76"/>
       <c r="O18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8753,27 +6991,27 @@
         <v>0.03</v>
       </c>
       <c r="O20" s="32">
-        <f>MIN(C3,E3,G3,I3,K3)</f>
+        <f t="shared" ref="O20:O30" si="2">MIN(C3,E3,G3,I3,K3)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="63">
-        <f>MIN(D3,F3,H3,J3,L3)</f>
+      <c r="P20" s="62">
+        <f t="shared" ref="P20:P30" si="3">MIN(D3,F3,H3,J3,L3)</f>
         <v>0.01</v>
       </c>
       <c r="R20" s="32">
-        <f>MIN(C20,E20,G20,I20,K20)</f>
+        <f t="shared" ref="R20:R30" si="4">MIN(C20,E20,G20,I20,K20)</f>
         <v>1</v>
       </c>
-      <c r="S20" s="61">
-        <f>MIN(D20,F20,H20,J20,L20)</f>
+      <c r="S20" s="60">
+        <f t="shared" ref="S20:S30" si="5">MIN(D20,F20,H20,J20,L20)</f>
         <v>0.02</v>
       </c>
       <c r="U20" s="32">
-        <f>MIN(C37,E37,G37,I37,K37)</f>
+        <f t="shared" ref="U20:U30" si="6">MIN(C37,E37,G37,I37,K37)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="61">
-        <f>MIN(D37,F37,H37,J37,L37)</f>
+      <c r="V20" s="60">
+        <f t="shared" ref="V20:V30" si="7">MIN(D37,F37,H37,J37,L37)</f>
         <v>0.03</v>
       </c>
     </row>
@@ -8811,28 +7049,28 @@
       <c r="L21" s="31">
         <v>0.05</v>
       </c>
-      <c r="O21" s="60">
-        <f>MIN(C4,E4,G4,I4,K4)</f>
+      <c r="O21" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="63">
-        <f>MIN(D4,F4,H4,J4,L4)</f>
+      <c r="P21" s="62">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="R21" s="32">
-        <f>MIN(C21,E21,G21,I21,K21)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="61">
-        <f>MIN(D21,F21,H21,J21,L21)</f>
+      <c r="S21" s="60">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="U21" s="60">
-        <f>MIN(C38,E38,G38,I38,K38)</f>
+      <c r="U21" s="59">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="61">
-        <f>MIN(D38,F38,H38,J38,L38)</f>
+      <c r="V21" s="60">
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
     </row>
@@ -8870,28 +7108,28 @@
       <c r="L22" s="31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O22" s="60">
-        <f>MIN(C5,E5,G5,I5,K5)</f>
+      <c r="O22" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="63">
-        <f>MIN(D5,F5,H5,J5,L5)</f>
+      <c r="P22" s="62">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="R22" s="32">
-        <f>MIN(C22,E22,G22,I22,K22)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="S22" s="61">
-        <f>MIN(D22,F22,H22,J22,L22)</f>
+      <c r="S22" s="60">
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
-      <c r="U22" s="60">
-        <f>MIN(C39,E39,G39,I39,K39)</f>
+      <c r="U22" s="59">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="61">
-        <f>MIN(D39,F39,H39,J39,L39)</f>
+      <c r="V22" s="60">
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
     </row>
@@ -8929,28 +7167,28 @@
       <c r="L23" s="31">
         <v>0.17</v>
       </c>
-      <c r="O23" s="60">
-        <f>MIN(C6,E6,G6,I6,K6)</f>
+      <c r="O23" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="63">
-        <f>MIN(D6,F6,H6,J6,L6)</f>
+      <c r="P23" s="62">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="R23" s="32">
-        <f>MIN(C23,E23,G23,I23,K23)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="S23" s="61">
-        <f>MIN(D23,F23,H23,J23,L23)</f>
+      <c r="S23" s="60">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
       <c r="U23" s="32">
-        <f>MIN(C40,E40,G40,I40,K40)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="V23" s="61">
-        <f>MIN(D40,F40,H40,J40,L40)</f>
+      <c r="V23" s="60">
+        <f t="shared" si="7"/>
         <v>0.05</v>
       </c>
     </row>
@@ -8989,27 +7227,27 @@
         <v>0.17</v>
       </c>
       <c r="O24" s="32">
-        <f>MIN(C7,E7,G7,I7,K7)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="P24" s="61">
-        <f>MIN(D7,F7,H7,J7,L7)</f>
+      <c r="P24" s="60">
+        <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
       <c r="R24" s="32">
-        <f>MIN(C24,E24,G24,I24,K24)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="S24" s="63">
-        <f>MIN(D24,F24,H24,J24,L24)</f>
+      <c r="S24" s="62">
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
-      <c r="U24" s="60">
-        <f>MIN(C41,E41,G41,I41,K41)</f>
+      <c r="U24" s="59">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="V24" s="61">
-        <f>MIN(D41,F41,H41,J41,L41)</f>
+      <c r="V24" s="60">
+        <f t="shared" si="7"/>
         <v>0.08</v>
       </c>
     </row>
@@ -9047,28 +7285,28 @@
       <c r="L25" s="31">
         <v>0.81</v>
       </c>
-      <c r="O25" s="60">
-        <f>MIN(C8,E8,G8,I8,K8)</f>
+      <c r="O25" s="59">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="P25" s="63">
-        <f>MIN(D8,F8,H8,J8,L8)</f>
+      <c r="P25" s="62">
+        <f t="shared" si="3"/>
         <v>0.17</v>
       </c>
       <c r="R25" s="32">
-        <f>MIN(C25,E25,G25,I25,K25)</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
-      <c r="S25" s="61">
-        <f>MIN(D25,F25,H25,J25,L25)</f>
+      <c r="S25" s="60">
+        <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
       <c r="U25" s="32">
-        <f>MIN(C42,E42,G42,I42,K42)</f>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="V25" s="61">
-        <f>MIN(D42,F42,H42,J42,L42)</f>
+      <c r="V25" s="60">
+        <f t="shared" si="7"/>
         <v>0.64</v>
       </c>
     </row>
@@ -9106,28 +7344,28 @@
       <c r="L26" s="31">
         <v>4.87</v>
       </c>
-      <c r="O26" s="60">
-        <f>MIN(C9,E9,G9,I9,K9)</f>
+      <c r="O26" s="59">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P26" s="63">
-        <f>MIN(D9,F9,H9,J9,L9)</f>
+      <c r="P26" s="62">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="R26" s="32">
-        <f>MIN(C26,E26,G26,I26,K26)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="S26" s="63">
-        <f>MIN(D26,F26,H26,J26,L26)</f>
+      <c r="S26" s="62">
+        <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
-      <c r="U26" s="60">
-        <f>MIN(C43,E43,G43,I43,K43)</f>
+      <c r="U26" s="59">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="V26" s="61">
-        <f>MIN(D43,F43,H43,J43,L43)</f>
+      <c r="V26" s="60">
+        <f t="shared" si="7"/>
         <v>0.08</v>
       </c>
     </row>
@@ -9165,28 +7403,28 @@
       <c r="L27" s="27">
         <v>4.29</v>
       </c>
-      <c r="O27" s="60">
-        <f>MIN(C10,E10,G10,I10,K10)</f>
+      <c r="O27" s="59">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="63">
-        <f>MIN(D10,F10,H10,J10,L10)</f>
+      <c r="P27" s="62">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="R27" s="32">
-        <f>MIN(C27,E27,G27,I27,K27)</f>
+        <f t="shared" si="4"/>
         <v>451</v>
       </c>
-      <c r="S27" s="61">
-        <f>MIN(D27,F27,H27,J27,L27)</f>
+      <c r="S27" s="60">
+        <f t="shared" si="5"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="U27" s="32">
-        <f>MIN(C44,E44,G44,I44,K44)</f>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="V27" s="61">
-        <f>MIN(D44,F44,H44,J44,L44)</f>
+      <c r="V27" s="60">
+        <f t="shared" si="7"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -9224,28 +7462,28 @@
       <c r="L28" s="27">
         <v>5.62</v>
       </c>
-      <c r="O28" s="60">
-        <f>MIN(C11,E11,G11,I11,K11)</f>
+      <c r="O28" s="59">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="P28" s="63">
-        <f>MIN(D11,F11,H11,J11,L11)</f>
+      <c r="P28" s="62">
+        <f t="shared" si="3"/>
         <v>0.13</v>
       </c>
       <c r="R28" s="32">
-        <f>MIN(C28,E28,G28,I28,K28)</f>
+        <f t="shared" si="4"/>
         <v>572</v>
       </c>
-      <c r="S28" s="61">
-        <f>MIN(D28,F28,H28,J28,L28)</f>
+      <c r="S28" s="60">
+        <f t="shared" si="5"/>
         <v>1.55</v>
       </c>
       <c r="U28" s="32">
-        <f>MIN(C45,E45,G45,I45,K45)</f>
+        <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="V28" s="61">
-        <f>MIN(D45,F45,H45,J45,L45)</f>
+      <c r="V28" s="60">
+        <f t="shared" si="7"/>
         <v>1.48</v>
       </c>
     </row>
@@ -9283,28 +7521,28 @@
       <c r="L29" s="27">
         <v>1.98</v>
       </c>
-      <c r="O29" s="60">
-        <f>MIN(C12,E12,G12,I12,K12)</f>
+      <c r="O29" s="59">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="P29" s="63">
-        <f>MIN(D12,F12,H12,J12,L12)</f>
+      <c r="P29" s="62">
+        <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
       <c r="R29" s="32">
-        <f>MIN(C29,E29,G29,I29,K29)</f>
+        <f t="shared" si="4"/>
         <v>151</v>
       </c>
-      <c r="S29" s="61">
-        <f>MIN(D29,F29,H29,J29,L29)</f>
+      <c r="S29" s="60">
+        <f t="shared" si="5"/>
         <v>0.34</v>
       </c>
       <c r="U29" s="32">
-        <f>MIN(C46,E46,G46,I46,K46)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="V29" s="61">
-        <f>MIN(D46,F46,H46,J46,L46)</f>
+      <c r="V29" s="60">
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
     </row>
@@ -9342,36 +7580,36 @@
       <c r="L30" s="29">
         <v>53.13</v>
       </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
       <c r="O30" s="44">
-        <f>MIN(C13,E13,G13,I13,K13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="64">
-        <f>MIN(D13,F13,H13,J13,L13)</f>
+      <c r="P30" s="63">
+        <f t="shared" si="3"/>
         <v>0.02</v>
       </c>
       <c r="R30" s="33">
-        <f>MIN(C30,E30,G30,I30,K30)</f>
+        <f t="shared" si="4"/>
         <v>4908</v>
       </c>
-      <c r="S30" s="62">
-        <f>MIN(D30,F30,H30,J30,L30)</f>
+      <c r="S30" s="61">
+        <f t="shared" si="5"/>
         <v>10.55</v>
       </c>
       <c r="U30" s="44">
-        <f>MIN(C47,E47,G47,I47,K47)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V30" s="62">
-        <f>MIN(D47,F47,H47,J47,L47)</f>
+      <c r="V30" s="61">
+        <f t="shared" si="7"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="M31" s="58"/>
-      <c r="N31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="56"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
@@ -9386,39 +7624,39 @@
         <v>14.851818181818182</v>
       </c>
       <c r="E32" s="36">
-        <f t="shared" ref="E32:L32" si="2">AVERAGE(E20:E30)</f>
+        <f t="shared" ref="E32:L32" si="8">AVERAGE(E20:E30)</f>
         <v>16030.181818181818</v>
       </c>
       <c r="F32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>47.631818181818183</v>
       </c>
       <c r="G32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>776.09090909090912</v>
       </c>
       <c r="H32" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.7609090909090908</v>
       </c>
       <c r="I32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9399.363636363636</v>
       </c>
       <c r="J32" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>20.934545454545454</v>
       </c>
       <c r="K32" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2834.090909090909</v>
       </c>
       <c r="L32" s="37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6.5154545454545456</v>
       </c>
-      <c r="M32" s="53"/>
-      <c r="N32" s="54"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="53"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" s="38" t="s">
@@ -9433,64 +7671,64 @@
         <v>3.03</v>
       </c>
       <c r="E33" s="39">
-        <f t="shared" ref="E33:L33" si="3">MEDIAN(E20:E30)</f>
+        <f t="shared" ref="E33:L33" si="9">MEDIAN(E20:E30)</f>
         <v>475</v>
       </c>
       <c r="F33" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1.87</v>
       </c>
       <c r="G33" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>366</v>
       </c>
       <c r="H33" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.92</v>
       </c>
       <c r="I33" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>301</v>
       </c>
       <c r="J33" s="46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.78</v>
       </c>
       <c r="K33" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>295</v>
       </c>
       <c r="L33" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.81</v>
       </c>
-      <c r="M33" s="56"/>
-      <c r="N33" s="54"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="53"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
+      <c r="D35" s="76"/>
+      <c r="E35" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50" t="s">
+      <c r="F35" s="76"/>
+      <c r="G35" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50" t="s">
+      <c r="H35" s="76"/>
+      <c r="I35" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50" t="s">
+      <c r="J35" s="76"/>
+      <c r="K35" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="50"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="34" t="s">
@@ -9913,8 +8151,8 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M48" s="52"/>
-      <c r="N48" s="55"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B49" s="20" t="s">
@@ -9929,35 +8167,35 @@
         <v>1.1627272727272731</v>
       </c>
       <c r="E49" s="36">
-        <f t="shared" ref="E49:L49" si="4">AVERAGE(E37:E47)</f>
+        <f t="shared" ref="E49:L49" si="10">AVERAGE(E37:E47)</f>
         <v>282.09090909090907</v>
       </c>
       <c r="F49" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.47</v>
       </c>
       <c r="G49" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>44.81818181818182</v>
       </c>
       <c r="H49" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.5281818181818182</v>
       </c>
       <c r="I49" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>58.454545454545453</v>
       </c>
       <c r="J49" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.76454545454545442</v>
       </c>
       <c r="K49" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>108.27272727272727</v>
       </c>
       <c r="L49" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3990909090909089</v>
       </c>
     </row>
@@ -9974,35 +8212,35 @@
         <v>0.08</v>
       </c>
       <c r="E50" s="39">
-        <f t="shared" ref="E50:L50" si="5">MEDIAN(E37:E47)</f>
+        <f t="shared" ref="E50:L50" si="11">MEDIAN(E37:E47)</f>
         <v>46</v>
       </c>
       <c r="F50" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.7</v>
       </c>
       <c r="G50" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H50" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="I50" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="J50" s="46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
       <c r="K50" s="42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="L50" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.36</v>
       </c>
     </row>
@@ -10029,47 +8267,47 @@
         <f>AVERAGE(Tabel15[backtracks])</f>
         <v>99.909090909090907</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="67">
         <f>AVERAGE(Tabel15[CPU (s)])</f>
         <v>0.72545454545454546</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="69">
         <f>AVERAGE(E46:E56)</f>
         <v>147.27272727272725</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="69">
         <f>AVERAGE(F46:F56)</f>
         <v>1.655</v>
       </c>
-      <c r="G58" s="67">
+      <c r="G58" s="66">
         <f>AVERAGE(G46:G56)</f>
         <v>21.454545454545453</v>
       </c>
-      <c r="H58" s="68">
+      <c r="H58" s="67">
         <f>AVERAGE(H46:H56)</f>
         <v>0.26954545454545453</v>
       </c>
       <c r="I58" s="36">
-        <f t="shared" ref="I58:L58" si="6">AVERAGE(I46:I56)</f>
+        <f t="shared" ref="I58:L58" si="12">AVERAGE(I46:I56)</f>
         <v>23.363636363636363</v>
       </c>
       <c r="J58" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.32113636363636361</v>
       </c>
-      <c r="K58" s="67">
-        <f t="shared" si="6"/>
+      <c r="K58" s="66">
+        <f t="shared" si="12"/>
         <v>53.818181818181813</v>
       </c>
-      <c r="L58" s="68">
-        <f t="shared" si="6"/>
+      <c r="L58" s="67">
+        <f t="shared" si="12"/>
         <v>0.67727272727272725</v>
       </c>
-      <c r="N58" s="67">
+      <c r="N58" s="66">
         <f>(AVERAGE(C58,E58,G58,I58,K58))</f>
         <v>69.163636363636357</v>
       </c>
-      <c r="O58" s="68">
+      <c r="O58" s="67">
         <f>(AVERAGE(D58,F58,H58,J58,L58))</f>
         <v>0.72968181818181821</v>
       </c>
@@ -10078,7 +8316,7 @@
       <c r="B59" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="66">
+      <c r="C59" s="65">
         <f>(MEDIAN(Tabel15[backtracks]))</f>
         <v>16</v>
       </c>
@@ -10090,46 +8328,46 @@
         <f>MEDIAN(E46:E56)</f>
         <v>153.5</v>
       </c>
-      <c r="F59" s="71">
+      <c r="F59" s="70">
         <f>MEDIAN(F46:F56)</f>
         <v>1.56</v>
       </c>
-      <c r="G59" s="65">
+      <c r="G59" s="64">
         <f>MEDIAN(G46:G56)</f>
         <v>20.5</v>
       </c>
-      <c r="H59" s="69">
+      <c r="H59" s="68">
         <f>MEDIAN(H46:H56)</f>
         <v>0.25</v>
       </c>
-      <c r="I59" s="71">
-        <f t="shared" ref="I59:L59" si="7">MEDIAN(I46:I56)</f>
+      <c r="I59" s="70">
+        <f t="shared" ref="I59:L59" si="13">MEDIAN(I46:I56)</f>
         <v>17.5</v>
       </c>
-      <c r="J59" s="71">
-        <f t="shared" si="7"/>
+      <c r="J59" s="70">
+        <f t="shared" si="13"/>
         <v>0.245</v>
       </c>
-      <c r="K59" s="65">
-        <f t="shared" si="7"/>
+      <c r="K59" s="64">
+        <f t="shared" si="13"/>
         <v>53.5</v>
       </c>
-      <c r="L59" s="71">
-        <f t="shared" si="7"/>
+      <c r="L59" s="70">
+        <f t="shared" si="13"/>
         <v>0.64</v>
       </c>
-      <c r="N59" s="74">
+      <c r="N59" s="73">
         <f>(AVERAGE(C59,E59,G59,I59,K59))</f>
         <v>52.2</v>
       </c>
-      <c r="O59" s="73">
+      <c r="O59" s="72">
         <f>(AVERAGE(D59,F59,H59,J59,L59))</f>
         <v>0.57300000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N60" s="51"/>
-      <c r="O60" s="72"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="71"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -10147,43 +8385,43 @@
         <v>14.851818181818182</v>
       </c>
       <c r="E61" s="36">
-        <f t="shared" ref="E61:L61" si="8">AVERAGE(E49:E59)</f>
+        <f t="shared" ref="E61:L61" si="14">AVERAGE(E49:E59)</f>
         <v>157.21590909090907</v>
       </c>
       <c r="F61" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8462499999999999</v>
       </c>
       <c r="G61" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>26.693181818181817</v>
       </c>
       <c r="H61" s="47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.32443181818181821</v>
       </c>
       <c r="I61" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25.579545454545453</v>
       </c>
       <c r="J61" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.35267045454545454</v>
       </c>
       <c r="K61" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>60.147727272727266</v>
       </c>
       <c r="L61" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.76909090909090905</v>
       </c>
-      <c r="N61" s="74">
-        <f t="shared" ref="N61:N65" si="9">(AVERAGE(C61,E61,G61,I61,K61))</f>
+      <c r="N61" s="73">
+        <f t="shared" ref="N61:N62" si="15">(AVERAGE(C61,E61,G61,I61,K61))</f>
         <v>1080.4181818181817</v>
       </c>
-      <c r="O61" s="75">
-        <f t="shared" ref="O61:O65" si="10">(AVERAGE(D61,F61,H61,J61,L61))</f>
+      <c r="O61" s="74">
+        <f t="shared" ref="O61:O62" si="16">(AVERAGE(D61,F61,H61,J61,L61))</f>
         <v>3.628852272727273</v>
       </c>
     </row>
@@ -10200,49 +8438,49 @@
         <v>3.03</v>
       </c>
       <c r="E62" s="39">
-        <f t="shared" ref="E62:L62" si="11">MEDIAN(E49:E59)</f>
+        <f t="shared" ref="E62:L62" si="17">MEDIAN(E49:E59)</f>
         <v>150.38636363636363</v>
       </c>
       <c r="F62" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.6074999999999999</v>
       </c>
       <c r="G62" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>20.977272727272727</v>
       </c>
       <c r="H62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.25977272727272727</v>
       </c>
       <c r="I62" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>20.43181818181818</v>
       </c>
       <c r="J62" s="46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.28306818181818183</v>
       </c>
       <c r="K62" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>53.659090909090907</v>
       </c>
       <c r="L62" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.65863636363636369</v>
       </c>
-      <c r="N62" s="74">
-        <f t="shared" si="9"/>
+      <c r="N62" s="73">
+        <f t="shared" si="15"/>
         <v>268.09090909090912</v>
       </c>
-      <c r="O62" s="75">
-        <f t="shared" si="10"/>
+      <c r="O62" s="74">
+        <f t="shared" si="16"/>
         <v>1.1677954545454543</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N63" s="51"/>
-      <c r="O63" s="72"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="71"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -10251,7 +8489,7 @@
       <c r="B64" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="67">
+      <c r="C64" s="66">
         <f>AVERAGE(Tabel151718[backtracks])</f>
         <v>96.454545454545453</v>
       </c>
@@ -10260,43 +8498,43 @@
         <v>1.1627272727272731</v>
       </c>
       <c r="E64" s="36">
-        <f t="shared" ref="E64:L64" si="12">AVERAGE(E52:E62)</f>
+        <f t="shared" ref="E64:L64" si="18">AVERAGE(E52:E62)</f>
         <v>152.09375</v>
       </c>
       <c r="F64" s="36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.6671874999999998</v>
       </c>
       <c r="G64" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>22.40625</v>
       </c>
       <c r="H64" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.2759375</v>
       </c>
-      <c r="I64" s="70">
-        <f t="shared" si="12"/>
+      <c r="I64" s="69">
+        <f t="shared" si="18"/>
         <v>21.71875</v>
       </c>
-      <c r="J64" s="70">
-        <f t="shared" si="12"/>
+      <c r="J64" s="69">
+        <f t="shared" si="18"/>
         <v>0.30046875000000001</v>
       </c>
       <c r="K64" s="41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>55.281249999999993</v>
       </c>
       <c r="L64" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.68625000000000003</v>
       </c>
-      <c r="N64" s="74">
-        <f t="shared" ref="N64:N65" si="13">(AVERAGE(C64,E64,G64,I64,K64))</f>
+      <c r="N64" s="73">
+        <f t="shared" ref="N64:N65" si="19">(AVERAGE(C64,E64,G64,I64,K64))</f>
         <v>69.590909090909093</v>
       </c>
-      <c r="O64" s="75">
-        <f t="shared" ref="O64:O65" si="14">(AVERAGE(D64,F64,H64,J64,L64))</f>
+      <c r="O64" s="74">
+        <f t="shared" ref="O64:O65" si="20">(AVERAGE(D64,F64,H64,J64,L64))</f>
         <v>0.81851420454545454</v>
       </c>
     </row>
@@ -10304,431 +8542,431 @@
       <c r="B65" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="65">
+      <c r="C65" s="64">
         <f>MEDIAN(Tabel151718[backtracks])</f>
         <v>4</v>
       </c>
-      <c r="D65" s="69">
+      <c r="D65" s="68">
         <f>MEDIAN(Tabel151718[CPU (s)])</f>
         <v>0.08</v>
       </c>
-      <c r="E65" s="71">
-        <f t="shared" ref="E65:L65" si="15">MEDIAN(E52:E62)</f>
+      <c r="E65" s="70">
+        <f t="shared" ref="E65:L65" si="21">MEDIAN(E52:E62)</f>
         <v>151.94318181818181</v>
       </c>
       <c r="F65" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>1.6312500000000001</v>
       </c>
       <c r="G65" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>21.21590909090909</v>
       </c>
       <c r="H65" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.2646590909090909</v>
       </c>
       <c r="I65" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>21.897727272727273</v>
       </c>
       <c r="J65" s="46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.30210227272727275</v>
       </c>
       <c r="K65" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>53.73863636363636</v>
       </c>
       <c r="L65" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.66795454545454547</v>
       </c>
-      <c r="N65" s="65">
-        <f t="shared" si="13"/>
+      <c r="N65" s="64">
+        <f t="shared" si="19"/>
         <v>50.559090909090912</v>
       </c>
-      <c r="O65" s="76">
-        <f t="shared" si="14"/>
+      <c r="O65" s="75">
+        <f t="shared" si="20"/>
         <v>0.58919318181818192</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:D13">
-    <cfRule type="top10" dxfId="191" priority="200" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="173" priority="200" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
-    <cfRule type="top10" dxfId="190" priority="195" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="189" priority="196" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="188" priority="199" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="172" priority="195" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="171" priority="196" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="170" priority="199" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C13">
-    <cfRule type="top10" dxfId="187" priority="194" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="186" priority="197" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="185" priority="198" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="169" priority="194" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="168" priority="197" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="167" priority="198" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F13">
-    <cfRule type="top10" dxfId="184" priority="193" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="166" priority="193" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F13">
-    <cfRule type="top10" dxfId="183" priority="188" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="182" priority="189" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="181" priority="192" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="165" priority="188" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="164" priority="189" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="163" priority="192" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="top10" dxfId="180" priority="187" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="179" priority="190" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="178" priority="191" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="162" priority="187" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="161" priority="190" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="160" priority="191" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H13">
-    <cfRule type="top10" dxfId="177" priority="186" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="159" priority="186" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="top10" dxfId="176" priority="181" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="175" priority="182" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="174" priority="185" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="158" priority="181" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="157" priority="182" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="156" priority="185" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="top10" dxfId="173" priority="180" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="172" priority="183" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="171" priority="184" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="155" priority="180" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="154" priority="183" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="153" priority="184" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J13">
-    <cfRule type="top10" dxfId="170" priority="179" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="152" priority="179" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J13">
-    <cfRule type="top10" dxfId="169" priority="174" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="168" priority="175" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="167" priority="178" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="151" priority="174" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="150" priority="175" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="149" priority="178" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I13">
-    <cfRule type="top10" dxfId="166" priority="173" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="165" priority="176" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="164" priority="177" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="148" priority="173" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="147" priority="176" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="146" priority="177" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L13">
-    <cfRule type="top10" dxfId="163" priority="172" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="145" priority="172" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L13">
-    <cfRule type="top10" dxfId="162" priority="167" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="161" priority="168" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="160" priority="171" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="144" priority="167" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="143" priority="168" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="142" priority="171" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K13">
-    <cfRule type="top10" dxfId="159" priority="166" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="158" priority="169" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="157" priority="170" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="141" priority="166" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="140" priority="169" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="139" priority="170" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:L4">
-    <cfRule type="top10" dxfId="156" priority="165" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="138" priority="165" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:L3">
-    <cfRule type="top10" dxfId="155" priority="164" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="137" priority="164" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:L5">
-    <cfRule type="top10" dxfId="154" priority="162" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="136" priority="162" bottom="1" rank="1"/>
     <cfRule type="top10" priority="163" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6 E6 G6 I6 K6">
-    <cfRule type="top10" dxfId="153" priority="161" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="135" priority="161" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7 I7 G7 E7 C7">
-    <cfRule type="top10" dxfId="152" priority="160" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="134" priority="160" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 E8 G8 I8 K8">
-    <cfRule type="top10" dxfId="151" priority="159" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="133" priority="159" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9 E9 G9 I9 K9">
-    <cfRule type="top10" dxfId="150" priority="158" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="132" priority="158" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10 E10 G10 I10 K10">
-    <cfRule type="top10" dxfId="149" priority="157" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="131" priority="157" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11 E11 G11 I11 K11">
-    <cfRule type="top10" dxfId="148" priority="156" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="130" priority="156" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12 I12 G12 E12 C12">
-    <cfRule type="top10" dxfId="147" priority="155" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="129" priority="155" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 E15 G15 I15 K15">
-    <cfRule type="top10" dxfId="146" priority="153" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="128" priority="153" bottom="1" rank="1"/>
     <cfRule type="top10" priority="154" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16 E16 G16 I16 K16">
-    <cfRule type="top10" dxfId="145" priority="152" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="127" priority="152" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15 J15 H15 F15 D15">
-    <cfRule type="top10" dxfId="144" priority="151" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="126" priority="151" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 F16 H16 J16 L16">
-    <cfRule type="top10" dxfId="143" priority="150" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="125" priority="150" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D30">
-    <cfRule type="top10" dxfId="142" priority="149" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="124" priority="149" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D30">
-    <cfRule type="top10" dxfId="141" priority="144" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="140" priority="145" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="139" priority="148" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="123" priority="144" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="122" priority="145" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="121" priority="148" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C30">
-    <cfRule type="top10" dxfId="138" priority="143" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="137" priority="146" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="136" priority="147" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="120" priority="143" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="119" priority="146" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="118" priority="147" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F30">
-    <cfRule type="top10" dxfId="135" priority="142" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="117" priority="142" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F30">
-    <cfRule type="top10" dxfId="134" priority="137" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="133" priority="138" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="132" priority="141" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="116" priority="137" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="115" priority="138" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="114" priority="141" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:E30">
-    <cfRule type="top10" dxfId="131" priority="136" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="130" priority="139" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="129" priority="140" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="113" priority="136" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="112" priority="139" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="111" priority="140" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H30">
-    <cfRule type="top10" dxfId="128" priority="135" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="110" priority="135" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H30">
-    <cfRule type="top10" dxfId="127" priority="130" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="126" priority="131" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="125" priority="134" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="109" priority="130" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="108" priority="131" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="107" priority="134" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G30">
-    <cfRule type="top10" dxfId="124" priority="129" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="123" priority="132" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="122" priority="133" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="106" priority="129" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="132" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="133" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:J30">
-    <cfRule type="top10" dxfId="121" priority="128" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="103" priority="128" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J30">
-    <cfRule type="top10" dxfId="120" priority="123" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="119" priority="124" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="118" priority="127" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="102" priority="123" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="101" priority="124" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="100" priority="127" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I30">
-    <cfRule type="top10" dxfId="117" priority="122" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="116" priority="125" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="115" priority="126" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="99" priority="122" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="98" priority="125" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="97" priority="126" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:L30">
-    <cfRule type="top10" dxfId="114" priority="121" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="96" priority="121" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:L30">
-    <cfRule type="top10" dxfId="113" priority="116" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="112" priority="117" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="111" priority="120" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="95" priority="116" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="94" priority="117" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="120" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20:K30">
-    <cfRule type="top10" dxfId="110" priority="115" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="109" priority="118" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="108" priority="119" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="115" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="91" priority="118" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="90" priority="119" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:L21">
-    <cfRule type="top10" dxfId="107" priority="114" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="114" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:L20">
-    <cfRule type="top10" dxfId="106" priority="113" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="113" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:L22">
-    <cfRule type="top10" dxfId="105" priority="111" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="111" bottom="1" rank="1"/>
     <cfRule type="top10" priority="112" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 E23 G23 I23 K23">
-    <cfRule type="top10" dxfId="104" priority="110" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="110" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24 I24 G24 E24 C24">
-    <cfRule type="top10" dxfId="103" priority="109" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="109" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25 E25 G25 I25 K25">
-    <cfRule type="top10" dxfId="102" priority="108" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="108" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26 E26 G26 I26 K26">
-    <cfRule type="top10" dxfId="101" priority="107" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="107" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27 E27 G27 I27 K27">
-    <cfRule type="top10" dxfId="100" priority="106" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="106" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28 E28 G28 I28 K28">
-    <cfRule type="top10" dxfId="99" priority="105" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="105" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29 I29 G29 E29 C29">
-    <cfRule type="top10" dxfId="98" priority="104" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="104" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:L32">
-    <cfRule type="top10" dxfId="97" priority="102" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="102" bottom="1" rank="1"/>
     <cfRule type="top10" priority="103" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:L33">
-    <cfRule type="top10" dxfId="96" priority="101" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="101" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20 G20 E20 C20 K20">
-    <cfRule type="top10" dxfId="95" priority="98" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="98" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22 E22 G22 I22 K22">
-    <cfRule type="top10" dxfId="94" priority="97" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="97" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 E30 G30 I30 K30">
-    <cfRule type="top10" dxfId="93" priority="96" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="96" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33 E33 G33 I33 K33">
-    <cfRule type="top10" dxfId="92" priority="95" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="95" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32 E32 G32 I32 K32">
-    <cfRule type="top10" dxfId="91" priority="94" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="94" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D47">
-    <cfRule type="top10" dxfId="90" priority="93" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="93" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D47">
-    <cfRule type="top10" dxfId="89" priority="88" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="88" priority="89" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="87" priority="92" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="88" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="89" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="92" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C47">
-    <cfRule type="top10" dxfId="86" priority="87" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="85" priority="90" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="84" priority="91" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="87" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="90" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="91" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F47">
-    <cfRule type="top10" dxfId="83" priority="86" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="65" priority="86" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F47">
-    <cfRule type="top10" dxfId="82" priority="81" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="81" priority="82" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="80" priority="85" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="64" priority="81" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="63" priority="82" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="62" priority="85" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E47">
-    <cfRule type="top10" dxfId="79" priority="80" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="78" priority="83" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="77" priority="84" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="61" priority="80" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="60" priority="83" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="59" priority="84" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:H47">
-    <cfRule type="top10" dxfId="76" priority="79" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="58" priority="79" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H47">
-    <cfRule type="top10" dxfId="75" priority="74" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="74" priority="75" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="73" priority="78" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="57" priority="74" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="56" priority="75" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="55" priority="78" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G47">
-    <cfRule type="top10" dxfId="72" priority="73" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="71" priority="76" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="70" priority="77" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="54" priority="73" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="53" priority="76" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="52" priority="77" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:J47">
-    <cfRule type="top10" dxfId="69" priority="72" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="51" priority="72" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37:J47">
-    <cfRule type="top10" dxfId="68" priority="67" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="67" priority="68" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="66" priority="71" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="50" priority="67" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="49" priority="68" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="48" priority="71" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I47">
-    <cfRule type="top10" dxfId="65" priority="66" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="64" priority="69" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="63" priority="70" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="47" priority="66" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="46" priority="69" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="45" priority="70" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:L47">
-    <cfRule type="top10" dxfId="62" priority="65" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="44" priority="65" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:L47">
-    <cfRule type="top10" dxfId="61" priority="60" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="60" priority="61" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="59" priority="64" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="43" priority="60" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="61" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="64" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37:K47">
-    <cfRule type="top10" dxfId="58" priority="59" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="57" priority="62" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="56" priority="63" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="59" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="62" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="63" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:L38">
-    <cfRule type="top10" dxfId="55" priority="58" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="58" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:L37">
-    <cfRule type="top10" dxfId="54" priority="57" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="57" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:L39">
-    <cfRule type="top10" dxfId="53" priority="55" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="55" bottom="1" rank="1"/>
     <cfRule type="top10" priority="56" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40 E40 G40 I40 K40">
-    <cfRule type="top10" dxfId="52" priority="54" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="54" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41 I41 G41 E41 C41">
-    <cfRule type="top10" dxfId="51" priority="53" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="53" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42 E42 G42 I42 K42">
-    <cfRule type="top10" dxfId="50" priority="52" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="52" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43 E43 G43 I43 K43">
-    <cfRule type="top10" dxfId="49" priority="51" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="51" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44 E44 G44 I44 K44">
-    <cfRule type="top10" dxfId="48" priority="50" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="50" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45 E45 G45 I45 K45">
-    <cfRule type="top10" dxfId="47" priority="49" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="49" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46 I46 G46 E46 C46">
-    <cfRule type="top10" dxfId="46" priority="48" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="48" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="top10" dxfId="45" priority="46" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="46" bottom="1" rank="1"/>
     <cfRule type="top10" priority="47" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:L50">
-    <cfRule type="top10" dxfId="44" priority="45" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="45" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 G37 E37 C37 K37">
-    <cfRule type="top10" dxfId="43" priority="44" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="44" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39 E39 G39 I39 K39">
-    <cfRule type="top10" dxfId="42" priority="43" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="43" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 E47 G47 I47 K47">
-    <cfRule type="top10" dxfId="41" priority="42" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="42" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50 E50 G50 I50 K50">
-    <cfRule type="top10" dxfId="40" priority="41" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="41" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49 E49 G49 I49 K49">
-    <cfRule type="top10" dxfId="39" priority="40" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="40" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16 N32:N33">
-    <cfRule type="top10" dxfId="38" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16 N32:N33">
-    <cfRule type="top10" dxfId="37" priority="33" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="36" priority="36" percent="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="35" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="33" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="36" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16 N32:N33">
-    <cfRule type="top10" dxfId="34" priority="31" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="31" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20 R20 U20">
-    <cfRule type="top10" dxfId="32" priority="16" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="16" bottom="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/APLAI/experiments/results.xlsx
+++ b/APLAI/experiments/results.xlsx
@@ -3222,9 +3222,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$4:$A$16</c:f>
+              <c:f>Blad1!$A$35:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>very difficult</c:v>
                 </c:pt>
@@ -3257,9 +3257,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>clue17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3321,9 +3318,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$4:$A$16</c:f>
+              <c:f>Blad1!$A$35:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>very difficult</c:v>
                 </c:pt>
@@ -3356,9 +3353,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>clue17</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3413,6 +3407,47 @@
             <c:v>CHR3</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Blad1!$L$35:$L$45</c:f>
@@ -3465,11 +3500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115198592"/>
-        <c:axId val="115208576"/>
+        <c:axId val="106754432"/>
+        <c:axId val="106755968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115198592"/>
+        <c:axId val="106754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3478,7 +3513,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115208576"/>
+        <c:crossAx val="106755968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3486,7 +3521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115208576"/>
+        <c:axId val="106755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3497,7 +3532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115198592"/>
+        <c:crossAx val="106754432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,11 +3881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="125601664"/>
-        <c:axId val="125603200"/>
+        <c:axId val="107568512"/>
+        <c:axId val="107582592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125601664"/>
+        <c:axId val="107568512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +3894,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125603200"/>
+        <c:crossAx val="107582592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3867,7 +3902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125603200"/>
+        <c:axId val="107582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3913,1980 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125601664"/>
+        <c:crossAx val="107568512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Viewpoint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> 1 - CPU time spent</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CHR</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$35:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.1999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6180000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>naive</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.66</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>first_fail</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$H$3:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>moffmo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$L$3:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>moff</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>middle_out</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="45635072"/>
+        <c:axId val="45636608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45635072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45636608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45636608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45635072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Viewpoint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> 2 - CPU time spent</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34181126937204076"/>
+          <c:y val="2.1108179419525065E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CHR</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$H$35:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.258</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.621</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>naive</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$20:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>126.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>first_fail</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$H$20:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>10.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>moffmo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$L$20:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>53.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>moff</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$J$20:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>217.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>middle_out</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$F$20:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>44.87</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>31.45</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>437.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="56320000"/>
+        <c:axId val="56321920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56320000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56321920"/>
+        <c:crossesAt val="1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56321920"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56320000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Viewpoint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> 3 - CPU time spent</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CHR</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$M$35:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>#.##0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9940000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>naive</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>first_fail</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$H$37:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>moffmo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$L$37:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.04</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>4.68</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>moff</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$J$37:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>middle_out</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$A$35:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>very difficult</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>expert</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>lambda</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>symme</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>eastermonster</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>tarek_052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>goldennugget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>coloin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fin</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>clue17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad2!$F$37:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>0,000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>17.53</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="70656768"/>
+        <c:axId val="70659456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="70656768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70659456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70659456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70656768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3935,14 +5943,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -3958,6 +5966,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3" title="Viewpoint 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafiek 4" title="Viewpoint 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5" title="Viewpoint 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3986,6 +6088,222 @@
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="142875" y="209550"/>
           <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100"/>
+            <a:t>(s)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35033</cdr:x>
+      <cdr:y>0.02639</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45445</cdr:x>
+      <cdr:y>0.27968</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3076576" y="95251"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nl-BE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.0632</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2</cdr:x>
+      <cdr:y>0.39653</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="228141"/>
+          <a:ext cx="1756410" cy="1203313"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100"/>
+            <a:t>(s)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35033</cdr:x>
+      <cdr:y>0.02639</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45445</cdr:x>
+      <cdr:y>0.27968</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3076576" y="95251"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nl-BE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01193</cdr:x>
+      <cdr:y>0.0113</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21193</cdr:x>
+      <cdr:y>0.34463</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="104775" y="53942"/>
+          <a:ext cx="1756410" cy="1590659"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="nl-BE" sz="1100"/>
+            <a:t>(s)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35033</cdr:x>
+      <cdr:y>0.02639</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45445</cdr:x>
+      <cdr:y>0.27968</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3076576" y="95251"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nl-BE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.0632</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.2</cdr:x>
+      <cdr:y>0.39653</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="228141"/>
+          <a:ext cx="1756410" cy="1203313"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -4466,8 +6784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6307,7 +8625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
@@ -8593,21 +10911,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:D13">
     <cfRule type="top10" dxfId="173" priority="200" percent="1" rank="10"/>
